--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -2,21 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF780C41-1883-4635-BCBA-4EA6F174D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF2D8F-A381-42D4-A09A-2A7D9A52DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SUN" sheetId="1" r:id="rId1"/>
+    <sheet name="VIN" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="34">
   <si>
     <t>DOANH THU</t>
   </si>
@@ -123,6 +124,24 @@
   <si>
     <t>Chịu tang</t>
   </si>
+  <si>
+    <t>TRƯƠNG VŨ CA</t>
+  </si>
+  <si>
+    <t>NGUYỄN CHÍ BÌNH</t>
+  </si>
+  <si>
+    <t>QUANG HÀ</t>
+  </si>
+  <si>
+    <t>LÊ VĨNH NHÂM</t>
+  </si>
+  <si>
+    <t>MAI BÁ ĐẠT</t>
+  </si>
+  <si>
+    <t>NGUYỄN VĂN THẠO</t>
+  </si>
 </sst>
 </file>
 
@@ -176,7 +195,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,8 +226,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -257,13 +282,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF5B9BD5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -271,13 +318,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,19 +347,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -344,7 +404,7 @@
       <sheetData sheetId="3" refreshError="1"/>
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9" refreshError="1"/>
@@ -650,13 +710,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95551214-BA74-44A9-8CA1-20E853762A71}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:AC45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="W8" sqref="W8:W16"/>
+      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -692,68 +753,68 @@
   <sheetData>
     <row r="5" spans="2:29" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="13"/>
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="3" t="s">
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="4"/>
-      <c r="L6" s="3" t="s">
+      <c r="K6" s="9"/>
+      <c r="L6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="4"/>
-      <c r="P6" s="3" t="s">
+      <c r="O6" s="9"/>
+      <c r="P6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="3" t="s">
+      <c r="Q6" s="9"/>
+      <c r="R6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="4"/>
-      <c r="T6" s="3" t="s">
+      <c r="S6" s="9"/>
+      <c r="T6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="4"/>
-      <c r="V6" s="3" t="s">
+      <c r="U6" s="9"/>
+      <c r="V6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="4"/>
-      <c r="X6" s="3" t="s">
+      <c r="W6" s="9"/>
+      <c r="X6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="4"/>
-      <c r="Z6" s="3" t="s">
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="4"/>
-      <c r="AB6" s="3" t="s">
+      <c r="AA6" s="9"/>
+      <c r="AB6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="4"/>
+      <c r="AC6" s="9"/>
     </row>
     <row r="7" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -842,80 +903,80 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="6">
         <v>1940000</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="6">
         <v>660000</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>1450000</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <f>F8*$E$45</f>
         <v>870000</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="7">
         <v>1700000</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <f>H8*$E$45</f>
         <v>1020000</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="7">
         <v>1955000</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="7">
         <f>J8*$E$45</f>
         <v>1173000</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="7">
         <v>1720000</v>
       </c>
-      <c r="M8" s="11">
+      <c r="M8" s="7">
         <v>1030000</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="7">
         <v>1750000</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="7">
         <f>N8*$E$45</f>
         <v>1050000</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="7">
         <v>1750000</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="7">
         <f>P8*$E$45</f>
         <v>1050000</v>
       </c>
-      <c r="R8" s="11">
+      <c r="R8" s="7">
         <v>1710000</v>
       </c>
-      <c r="S8" s="11">
+      <c r="S8" s="7">
         <f>R8*$E$45</f>
         <v>1026000</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="11">
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="7">
         <v>3235000</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="7">
         <f>V8*$E$45</f>
         <v>1941000</v>
       </c>
-      <c r="X8" s="8"/>
-      <c r="Y8" s="8"/>
-      <c r="Z8" s="11">
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="7">
         <v>1760000</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="7">
         <f>Z8*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
     </row>
     <row r="9" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -925,80 +986,80 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>1720000</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>1020000</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>2080000</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>1250000</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <v>1760000</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <f t="shared" ref="I9:I38" si="0">H9*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="7">
         <v>1975000</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="7">
         <f t="shared" ref="K9:K38" si="1">J9*$E$45</f>
         <v>1185000</v>
       </c>
-      <c r="L9" s="11">
+      <c r="L9" s="7">
         <v>2050000</v>
       </c>
-      <c r="M9" s="11">
+      <c r="M9" s="7">
         <f>L9*$E$45</f>
         <v>1230000</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="7">
         <v>2200000</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="7">
         <f t="shared" ref="O9:O38" si="2">N9*$E$45</f>
         <v>1320000</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="7">
         <v>1870000</v>
       </c>
-      <c r="Q9" s="11">
+      <c r="Q9" s="7">
         <f t="shared" ref="Q9:Q38" si="3">P9*$E$45</f>
         <v>1122000</v>
       </c>
-      <c r="R9" s="11">
+      <c r="R9" s="7">
         <v>2130000</v>
       </c>
-      <c r="S9" s="11">
+      <c r="S9" s="7">
         <f t="shared" ref="S9:S11" si="4">R9*$E$45</f>
         <v>1278000</v>
       </c>
-      <c r="T9" s="9"/>
-      <c r="U9" s="9"/>
-      <c r="V9" s="11">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="7">
         <v>2080000</v>
       </c>
-      <c r="W9" s="11">
+      <c r="W9" s="7">
         <v>1250000</v>
       </c>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
-      <c r="Z9" s="11">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="7">
         <v>1730000</v>
       </c>
-      <c r="AA9" s="11">
+      <c r="AA9" s="7">
         <v>1080000</v>
       </c>
-      <c r="AB9" s="11">
+      <c r="AB9" s="7">
         <v>1150000</v>
       </c>
-      <c r="AC9" s="11">
+      <c r="AC9" s="7">
         <v>690000</v>
       </c>
     </row>
@@ -1010,80 +1071,80 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>2420000</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>1390000</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>2080000</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>1250000</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="7">
         <v>1850000</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>2220000</v>
       </c>
-      <c r="K10" s="11">
+      <c r="K10" s="7">
         <f t="shared" si="1"/>
         <v>1332000</v>
       </c>
-      <c r="L10" s="11">
+      <c r="L10" s="7">
         <v>1880000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="M10" s="7">
         <f>L10*$E$45</f>
         <v>1128000</v>
       </c>
-      <c r="N10" s="11">
+      <c r="N10" s="7">
         <v>2245000</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="7">
         <v>1392000</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="7">
         <v>1780000</v>
       </c>
-      <c r="Q10" s="11">
+      <c r="Q10" s="7">
         <f t="shared" si="3"/>
         <v>1068000</v>
       </c>
-      <c r="R10" s="11">
+      <c r="R10" s="7">
         <v>2130000</v>
       </c>
-      <c r="S10" s="11">
+      <c r="S10" s="7">
         <f t="shared" si="4"/>
         <v>1278000</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="9"/>
-      <c r="V10" s="11">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="7">
         <v>1880000</v>
       </c>
-      <c r="W10" s="11">
+      <c r="W10" s="7">
         <v>1130000</v>
       </c>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="11">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="7">
         <v>2245000</v>
       </c>
-      <c r="AA10" s="11">
+      <c r="AA10" s="7">
         <f>Z10*$E$45</f>
         <v>1347000</v>
       </c>
-      <c r="AB10" s="11">
+      <c r="AB10" s="7">
         <v>1710000</v>
       </c>
-      <c r="AC10" s="11">
+      <c r="AC10" s="7">
         <v>1020000</v>
       </c>
     </row>
@@ -1095,81 +1156,81 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>2600000</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <f>D11*$E$45</f>
         <v>1560000</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>1790000</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>1075000</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <v>1270000</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>850000</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="7">
         <v>2090000</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="7">
         <f t="shared" si="1"/>
         <v>1254000</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="7">
         <v>1900000</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="7">
         <f>L11*$E$45</f>
         <v>1140000</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="7">
         <v>2230000</v>
       </c>
-      <c r="O11" s="11">
-        <f>N11*$E$45</f>
+      <c r="O11" s="7">
+        <f t="shared" ref="O11:O16" si="6">N11*$E$45</f>
         <v>1338000</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="7">
         <v>2410000</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="7">
         <f t="shared" si="3"/>
         <v>1446000</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="7">
         <v>1790000</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="7">
         <f t="shared" si="4"/>
         <v>1074000</v>
       </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="9"/>
-      <c r="V11" s="11">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="7">
         <v>1920000</v>
       </c>
-      <c r="W11" s="11">
+      <c r="W11" s="7">
         <f>V11*$E$45</f>
         <v>1152000</v>
       </c>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
-      <c r="Z11" s="11">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="7">
         <v>1760000</v>
       </c>
-      <c r="AA11" s="11">
+      <c r="AA11" s="7">
         <f>Z11*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="AB11" s="9"/>
-      <c r="AC11" s="11">
-        <f t="shared" ref="AA11:AC38" si="6">AB11*$E$45</f>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="7">
+        <f t="shared" ref="AA11:AC38" si="7">AB11*$E$45</f>
         <v>0</v>
       </c>
     </row>
@@ -1181,83 +1242,83 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>2420000</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>1450000</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>1760000</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>1060000</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <v>2090000</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <f>H12*$E$45</f>
         <v>1254000</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="7">
         <v>2100000</v>
       </c>
-      <c r="K12" s="11">
+      <c r="K12" s="7">
         <f t="shared" si="1"/>
         <v>1260000</v>
       </c>
-      <c r="L12" s="11">
+      <c r="L12" s="7">
         <v>1960000</v>
       </c>
-      <c r="M12" s="11">
+      <c r="M12" s="7">
         <v>1180000</v>
       </c>
-      <c r="N12" s="11">
+      <c r="N12" s="7">
         <v>2120000</v>
       </c>
-      <c r="O12" s="11">
-        <f>N12*$E$45</f>
+      <c r="O12" s="7">
+        <f t="shared" si="6"/>
         <v>1272000</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="7">
         <v>1900000</v>
       </c>
-      <c r="Q12" s="11">
+      <c r="Q12" s="7">
         <f t="shared" si="3"/>
         <v>1140000</v>
       </c>
-      <c r="R12" s="11">
+      <c r="R12" s="7">
         <v>2002000</v>
       </c>
-      <c r="S12" s="11">
+      <c r="S12" s="7">
         <v>1202000</v>
       </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="9"/>
-      <c r="V12" s="11">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5"/>
+      <c r="V12" s="7">
         <v>2410000</v>
       </c>
-      <c r="W12" s="11">
+      <c r="W12" s="7">
         <v>1440000</v>
       </c>
-      <c r="X12" s="11">
+      <c r="X12" s="7">
         <v>2250000</v>
       </c>
-      <c r="Y12" s="11">
+      <c r="Y12" s="7">
         <f>X12*$E$45</f>
         <v>1350000</v>
       </c>
-      <c r="Z12" s="11">
+      <c r="Z12" s="7">
         <v>2080000</v>
       </c>
-      <c r="AA12" s="11">
+      <c r="AA12" s="7">
         <f>Z12*$E$45</f>
         <v>1248000</v>
       </c>
-      <c r="AB12" s="9"/>
-      <c r="AC12" s="11">
-        <f t="shared" si="6"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1269,83 +1330,83 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>2600000</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>1150000</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>2270000</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>1362000</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>1770000</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <f>H13*$E$45</f>
         <v>1062000</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>2200000</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="7">
         <f t="shared" si="1"/>
         <v>1320000</v>
       </c>
-      <c r="L13" s="11">
+      <c r="L13" s="7">
         <v>1830000</v>
       </c>
-      <c r="M13" s="11">
+      <c r="M13" s="7">
         <f>L13*$E$45</f>
         <v>1098000</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="7">
         <v>1770000</v>
       </c>
-      <c r="O13" s="11">
-        <f>N13*$E$45</f>
+      <c r="O13" s="7">
+        <f t="shared" si="6"/>
         <v>1062000</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="7">
         <v>1720000</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="7">
         <f t="shared" si="3"/>
         <v>1032000</v>
       </c>
-      <c r="R13" s="11">
+      <c r="R13" s="7">
         <v>1720000</v>
       </c>
-      <c r="S13" s="11">
+      <c r="S13" s="7">
         <v>1032000</v>
       </c>
-      <c r="T13" s="9"/>
-      <c r="U13" s="9"/>
-      <c r="V13" s="11">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="7">
         <v>3616000</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="7">
         <v>2160000</v>
       </c>
-      <c r="X13" s="11">
+      <c r="X13" s="7">
         <v>2300000</v>
       </c>
-      <c r="Y13" s="11">
+      <c r="Y13" s="7">
         <f>X13*$E$45</f>
         <v>1380000</v>
       </c>
-      <c r="Z13" s="11">
+      <c r="Z13" s="7">
         <v>1700000</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="7">
         <v>850000</v>
       </c>
-      <c r="AB13" s="9"/>
-      <c r="AC13" s="11">
-        <f t="shared" si="6"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1357,89 +1418,89 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>2000000</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <f>[1]!Table145245678910[[#This Row],[THỰC LÃNH]]</f>
         <v>834000</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>1720000</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <f>F14*$E$45</f>
         <v>1032000</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <v>1800000</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <f>H14*$E$45</f>
         <v>1080000</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="7">
         <v>1760000</v>
       </c>
-      <c r="K14" s="11">
+      <c r="K14" s="7">
         <f t="shared" si="1"/>
         <v>1056000</v>
       </c>
-      <c r="L14" s="11">
+      <c r="L14" s="7">
         <v>2550000</v>
       </c>
-      <c r="M14" s="11">
+      <c r="M14" s="7">
         <f>L14*$E$45</f>
         <v>1530000</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="7">
         <v>1930000</v>
       </c>
-      <c r="O14" s="11">
-        <f>N14*$E$45</f>
+      <c r="O14" s="7">
+        <f t="shared" si="6"/>
         <v>1158000</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="7">
         <v>2400000</v>
       </c>
-      <c r="Q14" s="11">
+      <c r="Q14" s="7">
         <f t="shared" si="3"/>
         <v>1440000</v>
       </c>
-      <c r="R14" s="11">
+      <c r="R14" s="7">
         <v>1730000</v>
       </c>
-      <c r="S14" s="11">
+      <c r="S14" s="7">
         <v>1038000</v>
       </c>
-      <c r="T14" s="11">
+      <c r="T14" s="7">
         <v>1830000</v>
       </c>
-      <c r="U14" s="11">
+      <c r="U14" s="7">
         <f>T14*$E$45</f>
         <v>1098000</v>
       </c>
-      <c r="V14" s="11">
+      <c r="V14" s="7">
         <v>2230000</v>
       </c>
-      <c r="W14" s="11">
+      <c r="W14" s="7">
         <v>1338000</v>
       </c>
-      <c r="X14" s="11">
+      <c r="X14" s="7">
         <v>1800000</v>
       </c>
-      <c r="Y14" s="11">
+      <c r="Y14" s="7">
         <f>X14*$E$45</f>
         <v>1080000</v>
       </c>
-      <c r="Z14" s="9"/>
-      <c r="AA14" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="9"/>
-      <c r="AC14" s="11">
-        <f t="shared" si="6"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1451,87 +1512,87 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>1710000</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>1020000</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>700000</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <f>F15*$E$45</f>
         <v>420000</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <v>1920000</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <f>H15*$E$45</f>
         <v>1152000</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="7">
         <v>2010000</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="7">
         <f t="shared" si="1"/>
         <v>1206000</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="7">
         <v>1720000</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="7">
         <f>L15*$E$45</f>
         <v>1032000</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="7">
         <v>2080000</v>
       </c>
-      <c r="O15" s="11">
-        <f>N15*$E$45</f>
+      <c r="O15" s="7">
+        <f t="shared" si="6"/>
         <v>1248000</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="7">
         <v>1750000</v>
       </c>
-      <c r="Q15" s="11">
+      <c r="Q15" s="7">
         <f t="shared" si="3"/>
         <v>1050000</v>
       </c>
-      <c r="R15" s="11">
+      <c r="R15" s="7">
         <v>1830000</v>
       </c>
-      <c r="S15" s="11">
+      <c r="S15" s="7">
         <v>1098000</v>
       </c>
-      <c r="T15" s="11">
+      <c r="T15" s="7">
         <v>1830000</v>
       </c>
-      <c r="U15" s="11">
+      <c r="U15" s="7">
         <v>1116000</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="7">
         <v>2380000</v>
       </c>
-      <c r="W15" s="11">
+      <c r="W15" s="7">
         <v>1428000</v>
       </c>
-      <c r="X15" s="11">
+      <c r="X15" s="7">
         <v>3810000</v>
       </c>
-      <c r="Y15" s="11">
+      <c r="Y15" s="7">
         <f>X15*$E$45</f>
         <v>2286000</v>
       </c>
-      <c r="Z15" s="9"/>
-      <c r="AA15" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="9"/>
-      <c r="AC15" s="11">
-        <f t="shared" si="6"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1543,85 +1604,85 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>1930000</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>1150000</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>1400000</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <f>F16*$E$45</f>
         <v>840000</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="7">
         <v>3310000</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <f>H16*$E$45</f>
         <v>1986000</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="7">
         <v>1810000</v>
       </c>
-      <c r="K16" s="11">
+      <c r="K16" s="7">
         <f t="shared" si="1"/>
         <v>1086000</v>
       </c>
-      <c r="L16" s="11">
+      <c r="L16" s="7">
         <v>2360000</v>
       </c>
-      <c r="M16" s="11">
+      <c r="M16" s="7">
         <f>L16*$E$45</f>
         <v>1416000</v>
       </c>
-      <c r="N16" s="11">
+      <c r="N16" s="7">
         <v>1390000</v>
       </c>
-      <c r="O16" s="11">
-        <f>N16*$E$45</f>
+      <c r="O16" s="7">
+        <f t="shared" si="6"/>
         <v>834000</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="7">
         <v>1400000</v>
       </c>
-      <c r="Q16" s="11">
+      <c r="Q16" s="7">
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="12" t="s">
+      <c r="R16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="12"/>
-      <c r="T16" s="11">
+      <c r="S16" s="10"/>
+      <c r="T16" s="7">
         <v>1740000</v>
       </c>
-      <c r="U16" s="11">
+      <c r="U16" s="7">
         <v>1044000</v>
       </c>
-      <c r="V16" s="11">
+      <c r="V16" s="7">
         <v>1750000</v>
       </c>
-      <c r="W16" s="11">
+      <c r="W16" s="7">
         <v>1050000</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="7">
         <v>1510000</v>
       </c>
-      <c r="Y16" s="11">
+      <c r="Y16" s="7">
         <f>X16*$E$45</f>
         <v>906000</v>
       </c>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="11">
-        <f t="shared" si="6"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1633,56 +1694,56 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="11">
-        <f t="shared" ref="E16:E38" si="7">D17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="13" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="7">
+        <f t="shared" ref="E17:E38" si="8">D17*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="11">
+      <c r="I17" s="11"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="11">
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="11">
+      <c r="P17" s="5"/>
+      <c r="Q17" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R17" s="9"/>
-      <c r="S17" s="11">
-        <f t="shared" ref="S16:S38" si="8">R17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-      <c r="V17" s="9"/>
-      <c r="W17" s="11">
-        <f t="shared" ref="W16:W38" si="9">V17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="9"/>
-      <c r="AC17" s="11">
-        <f t="shared" si="6"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="7">
+        <f t="shared" ref="S17:S38" si="9">R17*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="7">
+        <f t="shared" ref="W17:W38" si="10">V17*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1694,57 +1755,57 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="9"/>
-      <c r="K18" s="11">
+      <c r="D18" s="5"/>
+      <c r="E18" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L18" s="9"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="9"/>
-      <c r="O18" s="11">
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="11">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R18" s="9"/>
-      <c r="S18" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="9"/>
-      <c r="U18" s="9"/>
-      <c r="V18" s="9"/>
-      <c r="W18" s="11">
+      <c r="R18" s="5"/>
+      <c r="S18" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="11">
-        <f t="shared" si="6"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1756,57 +1817,57 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="9"/>
-      <c r="E19" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="9"/>
-      <c r="K19" s="11">
+      <c r="D19" s="5"/>
+      <c r="E19" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L19" s="9"/>
-      <c r="M19" s="9"/>
-      <c r="N19" s="9"/>
-      <c r="O19" s="11">
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="11">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="9"/>
-      <c r="S19" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="9"/>
-      <c r="V19" s="9"/>
-      <c r="W19" s="11">
+      <c r="R19" s="5"/>
+      <c r="S19" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="9"/>
-      <c r="AC19" s="11">
-        <f t="shared" si="6"/>
+      <c r="T19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1818,57 +1879,57 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="9"/>
-      <c r="K20" s="11">
+      <c r="D20" s="5"/>
+      <c r="E20" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="9"/>
-      <c r="O20" s="11">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="11">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="9"/>
-      <c r="S20" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="9"/>
-      <c r="U20" s="9"/>
-      <c r="V20" s="9"/>
-      <c r="W20" s="11">
+      <c r="R20" s="5"/>
+      <c r="S20" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="9"/>
-      <c r="AC20" s="11">
-        <f t="shared" si="6"/>
+      <c r="T20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1880,57 +1941,57 @@
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="9"/>
-      <c r="E21" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="9"/>
-      <c r="K21" s="11">
+      <c r="D21" s="5"/>
+      <c r="E21" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L21" s="9"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="9"/>
-      <c r="O21" s="11">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="11">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R21" s="9"/>
-      <c r="S21" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="9"/>
-      <c r="V21" s="9"/>
-      <c r="W21" s="11">
+      <c r="R21" s="5"/>
+      <c r="S21" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="9"/>
-      <c r="AC21" s="11">
-        <f t="shared" si="6"/>
+      <c r="T21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -1942,57 +2003,57 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="9"/>
-      <c r="E22" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="9"/>
-      <c r="K22" s="11">
+      <c r="D22" s="5"/>
+      <c r="E22" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="9"/>
-      <c r="O22" s="11">
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="11">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R22" s="9"/>
-      <c r="S22" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="9"/>
-      <c r="W22" s="11">
+      <c r="R22" s="5"/>
+      <c r="S22" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="11">
-        <f t="shared" si="6"/>
+      <c r="T22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2004,57 +2065,57 @@
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="9"/>
-      <c r="K23" s="11">
+      <c r="D23" s="5"/>
+      <c r="E23" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="9"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="9"/>
-      <c r="O23" s="11">
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="11">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="9"/>
-      <c r="S23" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="9"/>
-      <c r="V23" s="9"/>
-      <c r="W23" s="11">
+      <c r="R23" s="5"/>
+      <c r="S23" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="11">
-        <f t="shared" si="6"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="5"/>
+      <c r="W23" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5"/>
+      <c r="Z23" s="5"/>
+      <c r="AA23" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="5"/>
+      <c r="AC23" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2066,57 +2127,57 @@
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="9"/>
-      <c r="K24" s="11">
+      <c r="D24" s="5"/>
+      <c r="E24" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="11">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="11">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R24" s="9"/>
-      <c r="S24" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="11">
+      <c r="R24" s="5"/>
+      <c r="S24" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="9"/>
-      <c r="AA24" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="11">
-        <f t="shared" si="6"/>
+      <c r="T24" s="5"/>
+      <c r="U24" s="5"/>
+      <c r="V24" s="5"/>
+      <c r="W24" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5"/>
+      <c r="Z24" s="5"/>
+      <c r="AA24" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="5"/>
+      <c r="AC24" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2128,57 +2189,57 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="9"/>
-      <c r="K25" s="11">
+      <c r="D25" s="5"/>
+      <c r="E25" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L25" s="9"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="11">
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="11">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R25" s="9"/>
-      <c r="S25" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="11">
+      <c r="R25" s="5"/>
+      <c r="S25" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="9"/>
-      <c r="AA25" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="9"/>
-      <c r="AC25" s="11">
-        <f t="shared" si="6"/>
+      <c r="T25" s="5"/>
+      <c r="U25" s="5"/>
+      <c r="V25" s="5"/>
+      <c r="W25" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="5"/>
+      <c r="AC25" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2190,57 +2251,57 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="9"/>
-      <c r="K26" s="11">
+      <c r="D26" s="5"/>
+      <c r="E26" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="11">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="11">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R26" s="9"/>
-      <c r="S26" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="W26" s="11">
+      <c r="R26" s="5"/>
+      <c r="S26" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
-      <c r="Z26" s="9"/>
-      <c r="AA26" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="9"/>
-      <c r="AC26" s="11">
-        <f t="shared" si="6"/>
+      <c r="T26" s="5"/>
+      <c r="U26" s="5"/>
+      <c r="V26" s="5"/>
+      <c r="W26" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5"/>
+      <c r="Z26" s="5"/>
+      <c r="AA26" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="5"/>
+      <c r="AC26" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2252,57 +2313,57 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="11">
+      <c r="D27" s="5"/>
+      <c r="E27" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="11">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="11">
+      <c r="P27" s="5"/>
+      <c r="Q27" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R27" s="9"/>
-      <c r="S27" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="9"/>
-      <c r="U27" s="9"/>
-      <c r="V27" s="9"/>
-      <c r="W27" s="11">
+      <c r="R27" s="5"/>
+      <c r="S27" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="9"/>
-      <c r="AC27" s="11">
-        <f t="shared" si="6"/>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5"/>
+      <c r="V27" s="5"/>
+      <c r="W27" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5"/>
+      <c r="Z27" s="5"/>
+      <c r="AA27" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5"/>
+      <c r="AC27" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2314,57 +2375,57 @@
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="9"/>
-      <c r="K28" s="11">
+      <c r="D28" s="5"/>
+      <c r="E28" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L28" s="9"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="9"/>
-      <c r="O28" s="11">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="11">
+      <c r="P28" s="5"/>
+      <c r="Q28" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R28" s="9"/>
-      <c r="S28" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T28" s="9"/>
-      <c r="U28" s="9"/>
-      <c r="V28" s="9"/>
-      <c r="W28" s="11">
+      <c r="R28" s="5"/>
+      <c r="S28" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
-      <c r="Z28" s="9"/>
-      <c r="AA28" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="9"/>
-      <c r="AC28" s="11">
-        <f t="shared" si="6"/>
+      <c r="T28" s="5"/>
+      <c r="U28" s="5"/>
+      <c r="V28" s="5"/>
+      <c r="W28" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5"/>
+      <c r="Z28" s="5"/>
+      <c r="AA28" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="5"/>
+      <c r="AC28" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2376,57 +2437,57 @@
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="9"/>
-      <c r="K29" s="11">
+      <c r="D29" s="5"/>
+      <c r="E29" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="5"/>
+      <c r="K29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="9"/>
-      <c r="O29" s="11">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="11">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R29" s="9"/>
-      <c r="S29" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="9"/>
-      <c r="U29" s="9"/>
-      <c r="V29" s="9"/>
-      <c r="W29" s="11">
+      <c r="R29" s="5"/>
+      <c r="S29" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="9"/>
-      <c r="AC29" s="11">
-        <f t="shared" si="6"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
+      <c r="V29" s="5"/>
+      <c r="W29" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5"/>
+      <c r="Z29" s="5"/>
+      <c r="AA29" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="5"/>
+      <c r="AC29" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2438,57 +2499,57 @@
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="9"/>
-      <c r="K30" s="11">
+      <c r="D30" s="5"/>
+      <c r="E30" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="9"/>
-      <c r="O30" s="11">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="11">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R30" s="9"/>
-      <c r="S30" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="9"/>
-      <c r="U30" s="9"/>
-      <c r="V30" s="9"/>
-      <c r="W30" s="11">
+      <c r="R30" s="5"/>
+      <c r="S30" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="9"/>
-      <c r="AC30" s="11">
-        <f t="shared" si="6"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
+      <c r="V30" s="5"/>
+      <c r="W30" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5"/>
+      <c r="Z30" s="5"/>
+      <c r="AA30" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="5"/>
+      <c r="AC30" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2500,57 +2561,57 @@
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="9"/>
-      <c r="K31" s="11">
+      <c r="D31" s="5"/>
+      <c r="E31" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L31" s="9"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="9"/>
-      <c r="O31" s="11">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="11">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R31" s="9"/>
-      <c r="S31" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="9"/>
-      <c r="U31" s="9"/>
-      <c r="V31" s="9"/>
-      <c r="W31" s="11">
+      <c r="R31" s="5"/>
+      <c r="S31" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="9"/>
-      <c r="AC31" s="11">
-        <f t="shared" si="6"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5"/>
+      <c r="Z31" s="5"/>
+      <c r="AA31" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="5"/>
+      <c r="AC31" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2562,57 +2623,57 @@
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="9"/>
-      <c r="E32" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="9"/>
-      <c r="K32" s="11">
+      <c r="D32" s="5"/>
+      <c r="E32" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L32" s="9"/>
-      <c r="M32" s="9"/>
-      <c r="N32" s="9"/>
-      <c r="O32" s="11">
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="11">
+      <c r="P32" s="5"/>
+      <c r="Q32" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R32" s="9"/>
-      <c r="S32" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="9"/>
-      <c r="U32" s="9"/>
-      <c r="V32" s="9"/>
-      <c r="W32" s="11">
+      <c r="R32" s="5"/>
+      <c r="S32" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="9"/>
-      <c r="AC32" s="11">
-        <f t="shared" si="6"/>
+      <c r="T32" s="5"/>
+      <c r="U32" s="5"/>
+      <c r="V32" s="5"/>
+      <c r="W32" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5"/>
+      <c r="Z32" s="5"/>
+      <c r="AA32" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="5"/>
+      <c r="AC32" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2624,57 +2685,57 @@
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="9"/>
-      <c r="E33" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="9"/>
-      <c r="K33" s="11">
+      <c r="D33" s="5"/>
+      <c r="E33" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L33" s="9"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="9"/>
-      <c r="O33" s="11">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="11">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R33" s="9"/>
-      <c r="S33" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T33" s="9"/>
-      <c r="U33" s="9"/>
-      <c r="V33" s="9"/>
-      <c r="W33" s="11">
+      <c r="R33" s="5"/>
+      <c r="S33" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="9"/>
-      <c r="AA33" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="9"/>
-      <c r="AC33" s="11">
-        <f t="shared" si="6"/>
+      <c r="T33" s="5"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
+      <c r="W33" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5"/>
+      <c r="Z33" s="5"/>
+      <c r="AA33" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="5"/>
+      <c r="AC33" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2686,57 +2747,57 @@
       <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="9"/>
-      <c r="K34" s="11">
+      <c r="D34" s="5"/>
+      <c r="E34" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="11">
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="11">
+      <c r="P34" s="5"/>
+      <c r="Q34" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R34" s="9"/>
-      <c r="S34" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="11">
+      <c r="R34" s="5"/>
+      <c r="S34" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X34" s="9"/>
-      <c r="Y34" s="9"/>
-      <c r="Z34" s="9"/>
-      <c r="AA34" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="9"/>
-      <c r="AC34" s="11">
-        <f t="shared" si="6"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5"/>
+      <c r="Z34" s="5"/>
+      <c r="AA34" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="5"/>
+      <c r="AC34" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2748,57 +2809,57 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="9"/>
-      <c r="K35" s="11">
+      <c r="D35" s="5"/>
+      <c r="E35" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L35" s="9"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="9"/>
-      <c r="O35" s="11">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="11">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R35" s="9"/>
-      <c r="S35" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="9"/>
-      <c r="U35" s="9"/>
-      <c r="V35" s="9"/>
-      <c r="W35" s="11">
+      <c r="R35" s="5"/>
+      <c r="S35" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X35" s="9"/>
-      <c r="Y35" s="9"/>
-      <c r="Z35" s="9"/>
-      <c r="AA35" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="9"/>
-      <c r="AC35" s="11">
-        <f t="shared" si="6"/>
+      <c r="T35" s="5"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+      <c r="W35" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5"/>
+      <c r="Z35" s="5"/>
+      <c r="AA35" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="5"/>
+      <c r="AC35" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2810,181 +2871,181 @@
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="9"/>
-      <c r="E36" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="9"/>
-      <c r="K36" s="11">
+      <c r="D36" s="5"/>
+      <c r="E36" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="9"/>
-      <c r="O36" s="11">
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="11">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R36" s="9"/>
-      <c r="S36" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="9"/>
-      <c r="U36" s="9"/>
-      <c r="V36" s="9"/>
-      <c r="W36" s="11">
+      <c r="R36" s="5"/>
+      <c r="S36" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X36" s="9"/>
-      <c r="Y36" s="9"/>
-      <c r="Z36" s="9"/>
-      <c r="AA36" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="9"/>
-      <c r="AC36" s="11">
-        <f t="shared" si="6"/>
+      <c r="T36" s="5"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+      <c r="W36" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5"/>
+      <c r="Z36" s="5"/>
+      <c r="AA36" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="5"/>
+      <c r="AC36" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" ref="B37:B38" si="10">B36+1</f>
+        <f t="shared" ref="B37:B38" si="11">B36+1</f>
         <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="9"/>
-      <c r="K37" s="11">
+      <c r="D37" s="5"/>
+      <c r="E37" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L37" s="9"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="9"/>
-      <c r="O37" s="11">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="11">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R37" s="9"/>
-      <c r="S37" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="9"/>
-      <c r="U37" s="9"/>
-      <c r="V37" s="9"/>
-      <c r="W37" s="11">
+      <c r="R37" s="5"/>
+      <c r="S37" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="9"/>
-      <c r="AA37" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="9"/>
-      <c r="AC37" s="11">
-        <f t="shared" si="6"/>
+      <c r="T37" s="5"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+      <c r="W37" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5"/>
+      <c r="Z37" s="5"/>
+      <c r="AA37" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="5"/>
+      <c r="AC37" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="11">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="9"/>
-      <c r="K38" s="11">
+      <c r="D38" s="5"/>
+      <c r="E38" s="7">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L38" s="9"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="9"/>
-      <c r="O38" s="11">
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="11">
+      <c r="P38" s="5"/>
+      <c r="Q38" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="9"/>
-      <c r="S38" s="11">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="T38" s="9"/>
-      <c r="U38" s="9"/>
-      <c r="V38" s="9"/>
-      <c r="W38" s="11">
+      <c r="R38" s="5"/>
+      <c r="S38" s="7">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="X38" s="9"/>
-      <c r="Y38" s="9"/>
-      <c r="Z38" s="9"/>
-      <c r="AA38" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="9"/>
-      <c r="AC38" s="11">
-        <f t="shared" si="6"/>
+      <c r="T38" s="5"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+      <c r="W38" s="7">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5"/>
+      <c r="Z38" s="5"/>
+      <c r="AA38" s="7">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="5"/>
+      <c r="AC38" s="7">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2998,16 +3059,16 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="R16:S16"/>
     <mergeCell ref="H17:I17"/>
     <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="P6:Q6"/>
@@ -3017,4 +3078,978 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979600B4-8072-4F20-B214-F928A4009CA5}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="B5:O45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="O15" activeCellId="5" sqref="E8:E16 G8:G16 I8:I16 K9:K16 M14:M16 O15:O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" customWidth="1"/>
+    <col min="13" max="13" width="12.77734375" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" customWidth="1"/>
+    <col min="18" max="18" width="14.109375" customWidth="1"/>
+    <col min="19" max="19" width="13.6640625" customWidth="1"/>
+    <col min="20" max="21" width="12.44140625" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="12" customWidth="1"/>
+    <col min="24" max="24" width="14.77734375" customWidth="1"/>
+    <col min="25" max="25" width="12.33203125" customWidth="1"/>
+    <col min="26" max="26" width="12" customWidth="1"/>
+    <col min="27" max="27" width="12.21875" customWidth="1"/>
+    <col min="28" max="28" width="12.77734375" customWidth="1"/>
+    <col min="29" max="29" width="13.77734375" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="9"/>
+      <c r="J6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9"/>
+      <c r="L6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15">
+        <v>1960000</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1180000</v>
+      </c>
+      <c r="F8" s="16">
+        <v>1950000</v>
+      </c>
+      <c r="G8" s="16">
+        <f>F8*$E$45</f>
+        <v>1170000</v>
+      </c>
+      <c r="H8" s="17">
+        <v>1940000</v>
+      </c>
+      <c r="I8" s="17">
+        <f>H8*$E$45</f>
+        <v>1164000</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
+        <f>B8+1</f>
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="15">
+        <v>2500000</v>
+      </c>
+      <c r="E9" s="15">
+        <f>D9*$E$45</f>
+        <v>1500000</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1950000</v>
+      </c>
+      <c r="G9" s="16">
+        <f>F9*$E$45</f>
+        <v>1170000</v>
+      </c>
+      <c r="H9" s="15">
+        <v>2190000</v>
+      </c>
+      <c r="I9" s="15">
+        <v>1315000</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1750000</v>
+      </c>
+      <c r="K9" s="18">
+        <v>880000</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <f t="shared" ref="B10:B38" si="0">B9+1</f>
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2610000</v>
+      </c>
+      <c r="E10" s="15">
+        <v>1570000</v>
+      </c>
+      <c r="F10" s="16">
+        <v>2500000</v>
+      </c>
+      <c r="G10" s="16">
+        <f>F10*$E$45</f>
+        <v>1500000</v>
+      </c>
+      <c r="H10" s="15">
+        <v>2520000</v>
+      </c>
+      <c r="I10" s="15">
+        <v>1510000</v>
+      </c>
+      <c r="J10" s="18">
+        <v>2100000</v>
+      </c>
+      <c r="K10" s="18">
+        <v>1050000</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="15">
+        <v>2550000</v>
+      </c>
+      <c r="E11" s="15">
+        <v>1530000</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1400000</v>
+      </c>
+      <c r="G11" s="16">
+        <f>F11*$E$45</f>
+        <v>840000</v>
+      </c>
+      <c r="H11" s="15">
+        <v>1820000</v>
+      </c>
+      <c r="I11" s="15">
+        <f>H11*$E$45</f>
+        <v>1092000</v>
+      </c>
+      <c r="J11" s="18">
+        <v>2300000</v>
+      </c>
+      <c r="K11" s="18">
+        <v>1150000</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="15">
+        <v>1950000</v>
+      </c>
+      <c r="E12" s="15">
+        <f>D12*$E$45</f>
+        <v>1170000</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1850000</v>
+      </c>
+      <c r="G12" s="16">
+        <f>F12*$E$45</f>
+        <v>1110000</v>
+      </c>
+      <c r="H12" s="15">
+        <v>2070000</v>
+      </c>
+      <c r="I12" s="15">
+        <v>1244000</v>
+      </c>
+      <c r="J12" s="18">
+        <v>1800000</v>
+      </c>
+      <c r="K12" s="18">
+        <v>900000</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="15">
+        <v>2000000</v>
+      </c>
+      <c r="E13" s="15">
+        <f>D13*$E$45</f>
+        <v>1200000</v>
+      </c>
+      <c r="F13" s="16">
+        <v>1800000</v>
+      </c>
+      <c r="G13" s="16">
+        <f>F13*$E$45</f>
+        <v>1080000</v>
+      </c>
+      <c r="H13" s="15">
+        <v>2270000</v>
+      </c>
+      <c r="I13" s="15">
+        <f>H13*$E$45</f>
+        <v>1362000</v>
+      </c>
+      <c r="J13" s="18">
+        <v>2000000</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+    </row>
+    <row r="14" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="15">
+        <v>2040000</v>
+      </c>
+      <c r="E14" s="15">
+        <f>D14*$E$45</f>
+        <v>1224000</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1900000</v>
+      </c>
+      <c r="G14" s="16">
+        <f>F14*$E$45</f>
+        <v>1140000</v>
+      </c>
+      <c r="H14" s="15">
+        <v>2180000</v>
+      </c>
+      <c r="I14" s="15">
+        <f>H14*$E$45</f>
+        <v>1308000</v>
+      </c>
+      <c r="J14" s="18">
+        <v>2700000</v>
+      </c>
+      <c r="K14" s="18">
+        <v>1350000</v>
+      </c>
+      <c r="L14" s="15">
+        <v>930000</v>
+      </c>
+      <c r="M14" s="15">
+        <v>540000</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="15">
+        <v>2400000</v>
+      </c>
+      <c r="E15" s="15">
+        <f>D15*$E$45</f>
+        <v>1440000</v>
+      </c>
+      <c r="F15" s="16">
+        <v>1850000</v>
+      </c>
+      <c r="G15" s="16">
+        <f>F15*$E$45</f>
+        <v>1110000</v>
+      </c>
+      <c r="H15" s="15">
+        <v>2340000</v>
+      </c>
+      <c r="I15" s="15">
+        <f>H15*$E$45</f>
+        <v>1404000</v>
+      </c>
+      <c r="J15" s="16">
+        <v>1800000</v>
+      </c>
+      <c r="K15" s="16">
+        <v>900000</v>
+      </c>
+      <c r="L15" s="15">
+        <v>900000</v>
+      </c>
+      <c r="M15" s="15">
+        <f>L15*$E$45</f>
+        <v>540000</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1100000</v>
+      </c>
+      <c r="O15" s="18">
+        <f>N15*$E$45</f>
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="15">
+        <v>1850000</v>
+      </c>
+      <c r="E16" s="15">
+        <f>D16*$E$45</f>
+        <v>1110000</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1900000</v>
+      </c>
+      <c r="G16" s="16">
+        <f>F16*$E$45</f>
+        <v>1140000</v>
+      </c>
+      <c r="H16" s="15">
+        <v>1690000</v>
+      </c>
+      <c r="I16" s="15">
+        <f>H16*$E$45</f>
+        <v>1014000</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1750000</v>
+      </c>
+      <c r="K16" s="16">
+        <v>875000</v>
+      </c>
+      <c r="L16" s="15">
+        <v>1360000</v>
+      </c>
+      <c r="M16" s="15">
+        <v>817000</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1350000</v>
+      </c>
+      <c r="O16" s="18">
+        <f>N16*$E$45</f>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+      <c r="O17" s="7"/>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+      <c r="O18" s="7"/>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="7"/>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="7"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="7"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="7"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="7"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="7"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+      <c r="O26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+      <c r="O27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+      <c r="O28" s="7"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+      <c r="O29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+      <c r="O30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="7"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="5"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+      <c r="O32" s="7"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="5"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+      <c r="O33" s="7"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="5"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="7"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="5"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+      <c r="O35" s="7"/>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="5"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+      <c r="O36" s="7"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+      <c r="N37" s="5"/>
+      <c r="O37" s="7"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="5"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+      <c r="N38" s="5"/>
+      <c r="O38" s="7"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45">
+        <v>0.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="L6:M6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AF2D8F-A381-42D4-A09A-2A7D9A52DEAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAE9C5-E35A-41EF-95DA-C300DA13D2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
   <si>
     <t>DOANH THU</t>
   </si>
@@ -122,9 +122,6 @@
     <t>Xin nghỉ thay đèn xe</t>
   </si>
   <si>
-    <t>Chịu tang</t>
-  </si>
-  <si>
     <t>TRƯƠNG VŨ CA</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>NGUYỄN VĂN THẠO</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>không chạy</t>
   </si>
 </sst>
 </file>
@@ -195,7 +198,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +231,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="0"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -282,28 +297,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF5B9BD5"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -338,26 +331,28 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -396,6 +391,7 @@
       <sheetName val="08-01"/>
       <sheetName val="09-01"/>
       <sheetName val="10-01"/>
+      <sheetName val="10-01 (1)"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -408,6 +404,7 @@
       <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -711,13 +708,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95551214-BA74-44A9-8CA1-20E853762A71}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="B5:AC45"/>
+  <dimension ref="B5:AV45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="Q8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S13" sqref="S13"/>
+      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -751,12 +748,12 @@
     <col min="31" max="31" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:29" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+    <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:48" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
@@ -809,8 +806,11 @@
         <v>25</v>
       </c>
       <c r="AC6" s="9"/>
-    </row>
-    <row r="7" spans="2:29" x14ac:dyDescent="0.25">
+      <c r="AV6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -978,7 +978,7 @@
       <c r="AB8" s="7"/>
       <c r="AC8" s="7"/>
     </row>
-    <row r="9" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
@@ -1063,7 +1063,7 @@
         <v>690000</v>
       </c>
     </row>
-    <row r="10" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ref="B10:B36" si="5">B9+1</f>
         <v>3</v>
@@ -1148,7 +1148,7 @@
         <v>1020000</v>
       </c>
     </row>
-    <row r="11" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" si="5"/>
         <v>4</v>
@@ -1234,7 +1234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="5"/>
         <v>5</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="5"/>
         <v>6</v>
@@ -1410,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="5"/>
         <v>7</v>
@@ -1504,7 +1504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:29" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="5"/>
         <v>8</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:29" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:48" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="5"/>
         <v>9</v>
@@ -1694,48 +1694,73 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7">
-        <f t="shared" ref="E17:E38" si="8">D17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" s="11"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="5"/>
-      <c r="S17" s="7">
-        <f t="shared" ref="S17:S38" si="9">R17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="7">
-        <f t="shared" ref="W17:W38" si="10">V17*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="5"/>
+      <c r="D17" s="13">
+        <v>2060000</v>
+      </c>
+      <c r="E17" s="13">
+        <v>1230000</v>
+      </c>
+      <c r="F17" s="13">
+        <v>1810000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>1086000</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2980000</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1788000</v>
+      </c>
+      <c r="J17" s="13">
+        <v>1630000</v>
+      </c>
+      <c r="K17" s="13">
+        <v>978000</v>
+      </c>
+      <c r="L17" s="13">
+        <v>1960000</v>
+      </c>
+      <c r="M17" s="13">
+        <v>1176000</v>
+      </c>
+      <c r="N17" s="13">
+        <v>3249000</v>
+      </c>
+      <c r="O17" s="13">
+        <v>1950000</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1800000</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1080000</v>
+      </c>
+      <c r="R17" s="13">
+        <v>1950000</v>
+      </c>
+      <c r="S17" s="13">
+        <v>1170000</v>
+      </c>
+      <c r="T17" s="13">
+        <v>1780000</v>
+      </c>
+      <c r="U17" s="13">
+        <v>1068000</v>
+      </c>
+      <c r="V17" s="13">
+        <v>2110000</v>
+      </c>
+      <c r="W17" s="13">
+        <v>1260000</v>
+      </c>
+      <c r="X17" s="6">
+        <v>700000</v>
+      </c>
+      <c r="Y17" s="6">
+        <f>X17*$E$45</f>
+        <v>420000</v>
+      </c>
       <c r="Z17" s="5"/>
       <c r="AA17" s="7">
         <f t="shared" si="7"/>
@@ -1757,7 +1782,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="E17:E38" si="8">D18*$E$45</f>
         <v>0</v>
       </c>
       <c r="F18" s="5"/>
@@ -1786,14 +1811,14 @@
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="S17:S38" si="9">R18*$E$45</f>
         <v>0</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="W17:W38" si="10">V18*$E$45</f>
         <v>0</v>
       </c>
       <c r="X18" s="5"/>
@@ -3058,7 +3083,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="15">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
@@ -3067,7 +3092,6 @@
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="R16:S16"/>
-    <mergeCell ref="H17:I17"/>
     <mergeCell ref="X6:Y6"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="N6:O6"/>
@@ -3089,7 +3113,7 @@
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="O15" activeCellId="5" sqref="E8:E16 G8:G16 I8:I16 K9:K16 M14:M16 O15:O16"/>
+      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3125,32 +3149,32 @@
   <sheetData>
     <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="13"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M6" s="9"/>
       <c r="N6" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="9"/>
     </row>
@@ -3198,7 +3222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
@@ -3211,28 +3235,28 @@
       <c r="E8" s="15">
         <v>1180000</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="15">
         <v>1950000</v>
       </c>
-      <c r="G8" s="16">
-        <f>F8*$E$45</f>
+      <c r="G8" s="15">
+        <f t="shared" ref="G8:G17" si="0">F8*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>1940000</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <f>H8*$E$45</f>
         <v>1164000</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="18"/>
+      <c r="O8" s="18"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
@@ -3247,11 +3271,11 @@
         <f>D9*$E$45</f>
         <v>1500000</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="15">
         <v>1950000</v>
       </c>
-      <c r="G9" s="16">
-        <f>F9*$E$45</f>
+      <c r="G9" s="15">
+        <f t="shared" si="0"/>
         <v>1170000</v>
       </c>
       <c r="H9" s="15">
@@ -3260,20 +3284,20 @@
       <c r="I9" s="15">
         <v>1315000</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="15">
         <v>1750000</v>
       </c>
-      <c r="K9" s="18">
+      <c r="K9" s="15">
         <v>880000</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
-        <f t="shared" ref="B10:B38" si="0">B9+1</f>
+        <f t="shared" ref="B10:B38" si="1">B9+1</f>
         <v>3</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -3285,11 +3309,11 @@
       <c r="E10" s="15">
         <v>1570000</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2500000</v>
       </c>
-      <c r="G10" s="16">
-        <f>F10*$E$45</f>
+      <c r="G10" s="15">
+        <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
       <c r="H10" s="15">
@@ -3298,20 +3322,20 @@
       <c r="I10" s="15">
         <v>1510000</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="15">
         <v>2100000</v>
       </c>
-      <c r="K10" s="18">
+      <c r="K10" s="15">
         <v>1050000</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
+      <c r="O10" s="18"/>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -3323,11 +3347,11 @@
       <c r="E11" s="15">
         <v>1530000</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>1400000</v>
       </c>
-      <c r="G11" s="16">
-        <f>F11*$E$45</f>
+      <c r="G11" s="15">
+        <f t="shared" si="0"/>
         <v>840000</v>
       </c>
       <c r="H11" s="15">
@@ -3337,20 +3361,20 @@
         <f>H11*$E$45</f>
         <v>1092000</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="15">
         <v>2300000</v>
       </c>
-      <c r="K11" s="18">
+      <c r="K11" s="15">
         <v>1150000</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -3363,11 +3387,11 @@
         <f>D12*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>1850000</v>
       </c>
-      <c r="G12" s="16">
-        <f>F12*$E$45</f>
+      <c r="G12" s="15">
+        <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
       <c r="H12" s="15">
@@ -3376,20 +3400,20 @@
       <c r="I12" s="15">
         <v>1244000</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="15">
         <v>1800000</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="15">
         <v>900000</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -3402,11 +3426,11 @@
         <f>D13*$E$45</f>
         <v>1200000</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>1800000</v>
       </c>
-      <c r="G13" s="16">
-        <f>F13*$E$45</f>
+      <c r="G13" s="15">
+        <f t="shared" si="0"/>
         <v>1080000</v>
       </c>
       <c r="H13" s="15">
@@ -3416,20 +3440,20 @@
         <f>H13*$E$45</f>
         <v>1362000</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="15">
         <v>2000000</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="15">
         <v>1000000</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
+      <c r="O13" s="18"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -3442,11 +3466,11 @@
         <f>D14*$E$45</f>
         <v>1224000</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="15">
         <v>1900000</v>
       </c>
-      <c r="G14" s="16">
-        <f>F14*$E$45</f>
+      <c r="G14" s="15">
+        <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
       <c r="H14" s="15">
@@ -3456,10 +3480,10 @@
         <f>H14*$E$45</f>
         <v>1308000</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="15">
         <v>2700000</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="15">
         <v>1350000</v>
       </c>
       <c r="L14" s="15">
@@ -3468,12 +3492,12 @@
       <c r="M14" s="15">
         <v>540000</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="2:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -3486,11 +3510,11 @@
         <f>D15*$E$45</f>
         <v>1440000</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="15">
         <v>1850000</v>
       </c>
-      <c r="G15" s="16">
-        <f>F15*$E$45</f>
+      <c r="G15" s="15">
+        <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
       <c r="H15" s="15">
@@ -3500,10 +3524,10 @@
         <f>H15*$E$45</f>
         <v>1404000</v>
       </c>
-      <c r="J15" s="16">
+      <c r="J15" s="15">
         <v>1800000</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="15">
         <v>900000</v>
       </c>
       <c r="L15" s="15">
@@ -3513,17 +3537,17 @@
         <f>L15*$E$45</f>
         <v>540000</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="15">
         <v>1100000</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="15">
         <f>N15*$E$45</f>
         <v>660000</v>
       </c>
     </row>
-    <row r="16" spans="2:15" ht="21" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -3536,11 +3560,11 @@
         <f>D16*$E$45</f>
         <v>1110000</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="15">
         <v>1900000</v>
       </c>
-      <c r="G16" s="16">
-        <f>F16*$E$45</f>
+      <c r="G16" s="15">
+        <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
       <c r="H16" s="15">
@@ -3550,10 +3574,10 @@
         <f>H16*$E$45</f>
         <v>1014000</v>
       </c>
-      <c r="J16" s="16">
+      <c r="J16" s="15">
         <v>1750000</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="15">
         <v>875000</v>
       </c>
       <c r="L16" s="15">
@@ -3562,38 +3586,61 @@
       <c r="M16" s="15">
         <v>817000</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="15">
         <v>1350000</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="15">
         <f>N16*$E$45</f>
         <v>810000</v>
       </c>
     </row>
-    <row r="17" spans="2:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
-      <c r="O17" s="7"/>
+      <c r="D17" s="15">
+        <v>1890000</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1135000</v>
+      </c>
+      <c r="F17" s="15">
+        <v>750000</v>
+      </c>
+      <c r="G17" s="15">
+        <f t="shared" si="0"/>
+        <v>450000</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1550000</v>
+      </c>
+      <c r="I17" s="15">
+        <v>930000</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="15">
+        <v>1550000</v>
+      </c>
+      <c r="M17" s="15">
+        <v>930000</v>
+      </c>
+      <c r="N17" s="15">
+        <v>1800000</v>
+      </c>
+      <c r="O17" s="15">
+        <v>1080000</v>
+      </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3614,7 +3661,7 @@
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3635,7 +3682,7 @@
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3656,7 +3703,7 @@
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3677,7 +3724,7 @@
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3698,7 +3745,7 @@
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3719,7 +3766,7 @@
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3740,7 +3787,7 @@
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3761,7 +3808,7 @@
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3782,7 +3829,7 @@
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3803,7 +3850,7 @@
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3824,7 +3871,7 @@
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3845,7 +3892,7 @@
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3866,7 +3913,7 @@
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3887,7 +3934,7 @@
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3908,7 +3955,7 @@
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3929,7 +3976,7 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3950,7 +3997,7 @@
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3971,7 +4018,7 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3992,7 +4039,7 @@
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -4013,7 +4060,7 @@
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4041,7 +4088,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J17:K17"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>

--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BAE9C5-E35A-41EF-95DA-C300DA13D2B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8124D-236B-4D35-81E5-5523B0A6DE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="SUN" sheetId="1" r:id="rId1"/>
@@ -303,7 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -322,6 +322,21 @@
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,29 +346,11 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -392,6 +389,7 @@
       <sheetName val="09-01"/>
       <sheetName val="10-01"/>
       <sheetName val="10-01 (1)"/>
+      <sheetName val="11-01 "/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -405,6 +403,7 @@
       <sheetData sheetId="8"/>
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -710,7 +709,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:AV45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -754,58 +753,58 @@
         <v>2</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8" t="s">
+      <c r="O6" s="14"/>
+      <c r="P6" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8" t="s">
+      <c r="Q6" s="14"/>
+      <c r="R6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="9"/>
-      <c r="T6" s="8" t="s">
+      <c r="S6" s="14"/>
+      <c r="T6" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="8" t="s">
+      <c r="U6" s="14"/>
+      <c r="V6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="9"/>
-      <c r="X6" s="8" t="s">
+      <c r="W6" s="14"/>
+      <c r="X6" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="8" t="s">
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="9"/>
-      <c r="AB6" s="8" t="s">
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="9"/>
+      <c r="AC6" s="14"/>
       <c r="AV6" t="s">
         <v>33</v>
       </c>
@@ -1306,7 +1305,7 @@
         <v>2250000</v>
       </c>
       <c r="Y12" s="7">
-        <f>X12*$E$45</f>
+        <f t="shared" ref="Y12:Y17" si="8">X12*$E$45</f>
         <v>1350000</v>
       </c>
       <c r="Z12" s="7">
@@ -1395,7 +1394,7 @@
         <v>2300000</v>
       </c>
       <c r="Y13" s="7">
-        <f>X13*$E$45</f>
+        <f t="shared" si="8"/>
         <v>1380000</v>
       </c>
       <c r="Z13" s="7">
@@ -1490,7 +1489,7 @@
         <v>1800000</v>
       </c>
       <c r="Y14" s="7">
-        <f>X14*$E$45</f>
+        <f t="shared" si="8"/>
         <v>1080000</v>
       </c>
       <c r="Z14" s="5"/>
@@ -1582,7 +1581,7 @@
         <v>3810000</v>
       </c>
       <c r="Y15" s="7">
-        <f>X15*$E$45</f>
+        <f t="shared" si="8"/>
         <v>2286000</v>
       </c>
       <c r="Z15" s="5"/>
@@ -1652,10 +1651,10 @@
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="10" t="s">
+      <c r="R16" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="10"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="7">
         <v>1740000</v>
       </c>
@@ -1672,7 +1671,7 @@
         <v>1510000</v>
       </c>
       <c r="Y16" s="7">
-        <f>X16*$E$45</f>
+        <f t="shared" si="8"/>
         <v>906000</v>
       </c>
       <c r="Z16" s="5"/>
@@ -1694,71 +1693,71 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="8">
         <v>2060000</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="8">
         <v>1230000</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="8">
         <v>1810000</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="8">
         <v>1086000</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="9">
         <v>2980000</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="9">
         <v>1788000</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="8">
         <v>1630000</v>
       </c>
-      <c r="K17" s="13">
+      <c r="K17" s="8">
         <v>978000</v>
       </c>
-      <c r="L17" s="13">
+      <c r="L17" s="8">
         <v>1960000</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="8">
         <v>1176000</v>
       </c>
-      <c r="N17" s="13">
+      <c r="N17" s="8">
         <v>3249000</v>
       </c>
-      <c r="O17" s="13">
+      <c r="O17" s="8">
         <v>1950000</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="8">
         <v>1800000</v>
       </c>
-      <c r="Q17" s="13">
+      <c r="Q17" s="8">
         <v>1080000</v>
       </c>
-      <c r="R17" s="13">
+      <c r="R17" s="8">
         <v>1950000</v>
       </c>
-      <c r="S17" s="13">
+      <c r="S17" s="8">
         <v>1170000</v>
       </c>
-      <c r="T17" s="13">
+      <c r="T17" s="8">
         <v>1780000</v>
       </c>
-      <c r="U17" s="13">
+      <c r="U17" s="8">
         <v>1068000</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="8">
         <v>2110000</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="8">
         <v>1260000</v>
       </c>
       <c r="X17" s="6">
         <v>700000</v>
       </c>
       <c r="Y17" s="6">
-        <f>X17*$E$45</f>
+        <f t="shared" si="8"/>
         <v>420000</v>
       </c>
       <c r="Z17" s="5"/>
@@ -1782,7 +1781,7 @@
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="7">
-        <f t="shared" ref="E17:E38" si="8">D18*$E$45</f>
+        <f t="shared" ref="E18:E38" si="9">D18*$E$45</f>
         <v>0</v>
       </c>
       <c r="F18" s="5"/>
@@ -1811,14 +1810,14 @@
       </c>
       <c r="R18" s="5"/>
       <c r="S18" s="7">
-        <f t="shared" ref="S17:S38" si="9">R18*$E$45</f>
+        <f t="shared" ref="S18:S38" si="10">R18*$E$45</f>
         <v>0</v>
       </c>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
       <c r="W18" s="7">
-        <f t="shared" ref="W17:W38" si="10">V18*$E$45</f>
+        <f t="shared" ref="W18:W38" si="11">V18*$E$45</f>
         <v>0</v>
       </c>
       <c r="X18" s="5"/>
@@ -1844,7 +1843,7 @@
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F19" s="5"/>
@@ -1873,14 +1872,14 @@
       </c>
       <c r="R19" s="5"/>
       <c r="S19" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X19" s="5"/>
@@ -1906,7 +1905,7 @@
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F20" s="5"/>
@@ -1935,14 +1934,14 @@
       </c>
       <c r="R20" s="5"/>
       <c r="S20" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
       <c r="W20" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X20" s="5"/>
@@ -1968,7 +1967,7 @@
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F21" s="5"/>
@@ -1997,14 +1996,14 @@
       </c>
       <c r="R21" s="5"/>
       <c r="S21" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
       <c r="W21" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X21" s="5"/>
@@ -2030,7 +2029,7 @@
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F22" s="5"/>
@@ -2059,14 +2058,14 @@
       </c>
       <c r="R22" s="5"/>
       <c r="S22" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
       <c r="W22" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X22" s="5"/>
@@ -2092,7 +2091,7 @@
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F23" s="5"/>
@@ -2121,14 +2120,14 @@
       </c>
       <c r="R23" s="5"/>
       <c r="S23" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
       <c r="W23" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X23" s="5"/>
@@ -2154,7 +2153,7 @@
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F24" s="5"/>
@@ -2183,14 +2182,14 @@
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
       <c r="W24" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X24" s="5"/>
@@ -2216,7 +2215,7 @@
       </c>
       <c r="D25" s="5"/>
       <c r="E25" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F25" s="5"/>
@@ -2245,14 +2244,14 @@
       </c>
       <c r="R25" s="5"/>
       <c r="S25" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X25" s="5"/>
@@ -2278,7 +2277,7 @@
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F26" s="5"/>
@@ -2307,14 +2306,14 @@
       </c>
       <c r="R26" s="5"/>
       <c r="S26" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X26" s="5"/>
@@ -2340,7 +2339,7 @@
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F27" s="5"/>
@@ -2369,14 +2368,14 @@
       </c>
       <c r="R27" s="5"/>
       <c r="S27" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X27" s="5"/>
@@ -2402,7 +2401,7 @@
       </c>
       <c r="D28" s="5"/>
       <c r="E28" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F28" s="5"/>
@@ -2431,14 +2430,14 @@
       </c>
       <c r="R28" s="5"/>
       <c r="S28" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
       <c r="W28" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X28" s="5"/>
@@ -2464,7 +2463,7 @@
       </c>
       <c r="D29" s="5"/>
       <c r="E29" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F29" s="5"/>
@@ -2493,14 +2492,14 @@
       </c>
       <c r="R29" s="5"/>
       <c r="S29" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
       <c r="W29" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X29" s="5"/>
@@ -2526,7 +2525,7 @@
       </c>
       <c r="D30" s="5"/>
       <c r="E30" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F30" s="5"/>
@@ -2555,14 +2554,14 @@
       </c>
       <c r="R30" s="5"/>
       <c r="S30" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
       <c r="W30" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X30" s="5"/>
@@ -2588,7 +2587,7 @@
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F31" s="5"/>
@@ -2617,14 +2616,14 @@
       </c>
       <c r="R31" s="5"/>
       <c r="S31" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
       <c r="W31" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X31" s="5"/>
@@ -2650,7 +2649,7 @@
       </c>
       <c r="D32" s="5"/>
       <c r="E32" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F32" s="5"/>
@@ -2679,14 +2678,14 @@
       </c>
       <c r="R32" s="5"/>
       <c r="S32" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
       <c r="W32" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X32" s="5"/>
@@ -2712,7 +2711,7 @@
       </c>
       <c r="D33" s="5"/>
       <c r="E33" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F33" s="5"/>
@@ -2741,14 +2740,14 @@
       </c>
       <c r="R33" s="5"/>
       <c r="S33" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
       <c r="W33" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X33" s="5"/>
@@ -2774,7 +2773,7 @@
       </c>
       <c r="D34" s="5"/>
       <c r="E34" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F34" s="5"/>
@@ -2803,14 +2802,14 @@
       </c>
       <c r="R34" s="5"/>
       <c r="S34" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
       <c r="W34" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X34" s="5"/>
@@ -2836,7 +2835,7 @@
       </c>
       <c r="D35" s="5"/>
       <c r="E35" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F35" s="5"/>
@@ -2865,14 +2864,14 @@
       </c>
       <c r="R35" s="5"/>
       <c r="S35" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
       <c r="W35" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X35" s="5"/>
@@ -2898,7 +2897,7 @@
       </c>
       <c r="D36" s="5"/>
       <c r="E36" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F36" s="5"/>
@@ -2927,14 +2926,14 @@
       </c>
       <c r="R36" s="5"/>
       <c r="S36" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
       <c r="W36" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X36" s="5"/>
@@ -2952,7 +2951,7 @@
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" ref="B37:B38" si="11">B36+1</f>
+        <f t="shared" ref="B37:B38" si="12">B36+1</f>
         <v>30</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -2960,7 +2959,7 @@
       </c>
       <c r="D37" s="5"/>
       <c r="E37" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F37" s="5"/>
@@ -2989,14 +2988,14 @@
       </c>
       <c r="R37" s="5"/>
       <c r="S37" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
       <c r="W37" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X37" s="5"/>
@@ -3014,7 +3013,7 @@
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>31</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -3022,7 +3021,7 @@
       </c>
       <c r="D38" s="5"/>
       <c r="E38" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="F38" s="5"/>
@@ -3051,14 +3050,14 @@
       </c>
       <c r="R38" s="5"/>
       <c r="S38" s="7">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
       <c r="W38" s="7">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X38" s="5"/>
@@ -3083,12 +3082,8 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="15">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AB6:AC6"/>
     <mergeCell ref="R16:S16"/>
@@ -3099,6 +3094,11 @@
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3109,11 +3109,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3153,30 +3153,30 @@
         <v>2</v>
       </c>
       <c r="C6" s="12"/>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8" t="s">
+      <c r="G6" s="14"/>
+      <c r="H6" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="8" t="s">
+      <c r="I6" s="14"/>
+      <c r="J6" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="14"/>
+      <c r="L6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="9"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3229,32 +3229,32 @@
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="7">
         <v>1960000</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="7">
         <v>1180000</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="7">
         <v>1950000</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="7">
         <f t="shared" ref="G8:G17" si="0">F8*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="7">
         <v>1940000</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="7">
         <f>H8*$E$45</f>
         <v>1164000</v>
       </c>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -3264,36 +3264,36 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="7">
         <v>2500000</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="7">
         <f>D9*$E$45</f>
         <v>1500000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="7">
         <v>1950000</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="7">
         <f t="shared" si="0"/>
         <v>1170000</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="7">
         <v>2190000</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="7">
         <v>1315000</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="7">
         <v>1750000</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="7">
         <v>880000</v>
       </c>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -3303,35 +3303,35 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="7">
         <v>2610000</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="7">
         <v>1570000</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="7">
         <v>2500000</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="7">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="7">
         <v>2520000</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="7">
         <v>1510000</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="7">
         <v>2100000</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="7">
         <v>1050000</v>
       </c>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -3341,36 +3341,36 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="7">
         <v>2550000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="7">
         <v>1530000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="7">
         <v>1400000</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="7">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="7">
         <v>1820000</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="7">
         <f>H11*$E$45</f>
         <v>1092000</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="7">
         <v>2300000</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="7">
         <v>1150000</v>
       </c>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -3380,36 +3380,36 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="7">
         <v>1950000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="7">
         <f>D12*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="7">
         <v>1850000</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="7">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="7">
         <v>2070000</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="7">
         <v>1244000</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="7">
         <v>1800000</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="7">
         <v>900000</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -3419,37 +3419,37 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="7">
         <v>2000000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="7">
         <f>D13*$E$45</f>
         <v>1200000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="7">
         <v>1800000</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="7">
         <f t="shared" si="0"/>
         <v>1080000</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="7">
         <v>2270000</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="7">
         <f>H13*$E$45</f>
         <v>1362000</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="7">
         <v>2000000</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="7">
         <v>1000000</v>
       </c>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -3459,41 +3459,41 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="7">
         <v>2040000</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="7">
         <f>D14*$E$45</f>
         <v>1224000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="7">
         <v>1900000</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="7">
         <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="7">
         <v>2180000</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="7">
         <f>H14*$E$45</f>
         <v>1308000</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="7">
         <v>2700000</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="7">
         <v>1350000</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="7">
         <v>930000</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="7">
         <v>540000</v>
       </c>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -3503,44 +3503,44 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="7">
         <v>2400000</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="7">
         <f>D15*$E$45</f>
         <v>1440000</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="7">
         <v>1850000</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="7">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="7">
         <v>2340000</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="7">
         <f>H15*$E$45</f>
         <v>1404000</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="7">
         <v>1800000</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="7">
         <v>900000</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="7">
         <v>900000</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="7">
         <f>L15*$E$45</f>
         <v>540000</v>
       </c>
-      <c r="N15" s="15">
+      <c r="N15" s="7">
         <v>1100000</v>
       </c>
-      <c r="O15" s="15">
+      <c r="O15" s="7">
         <f>N15*$E$45</f>
         <v>660000</v>
       </c>
@@ -3553,43 +3553,43 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="7">
         <v>1850000</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="7">
         <f>D16*$E$45</f>
         <v>1110000</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="7">
         <v>1900000</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="7">
         <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="7">
         <v>1690000</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="7">
         <f>H16*$E$45</f>
         <v>1014000</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="7">
         <v>1750000</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="7">
         <v>875000</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="7">
         <v>1360000</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="7">
         <v>817000</v>
       </c>
-      <c r="N16" s="15">
+      <c r="N16" s="7">
         <v>1350000</v>
       </c>
-      <c r="O16" s="15">
+      <c r="O16" s="7">
         <f>N16*$E$45</f>
         <v>810000</v>
       </c>
@@ -3602,39 +3602,39 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="7">
         <v>1890000</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="7">
         <v>1135000</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="7">
         <v>750000</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="7">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="7">
         <v>1550000</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="7">
         <v>930000</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="15">
+      <c r="K17" s="17"/>
+      <c r="L17" s="7">
         <v>1550000</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="7">
         <v>930000</v>
       </c>
-      <c r="N17" s="15">
+      <c r="N17" s="7">
         <v>1800000</v>
       </c>
-      <c r="O17" s="15">
+      <c r="O17" s="7">
         <v>1080000</v>
       </c>
     </row>
@@ -4088,6 +4088,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="J17:K17"/>
     <mergeCell ref="N6:O6"/>

--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D8124D-236B-4D35-81E5-5523B0A6DE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B63038-5FB6-4BDC-89BF-2A3A4EB53131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="SUN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
   <si>
     <t>DOANH THU</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>không chạy</t>
   </si>
+  <si>
+    <t>NGHỈ LUÔN</t>
+  </si>
 </sst>
 </file>
 
@@ -198,7 +201,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,8 +250,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -297,13 +306,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -314,11 +385,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -331,10 +398,22 @@
     <xf numFmtId="3" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -351,6 +430,30 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -390,6 +493,7 @@
       <sheetName val="10-01"/>
       <sheetName val="10-01 (1)"/>
       <sheetName val="11-01 "/>
+      <sheetName val="12-01"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
@@ -404,6 +508,7 @@
       <sheetData sheetId="9" refreshError="1"/>
       <sheetData sheetId="10" refreshError="1"/>
       <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -709,11 +814,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Z14" sqref="Z14"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -749,137 +854,137 @@
   <sheetData>
     <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:48" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="13" t="s">
+      <c r="O6" s="16"/>
+      <c r="P6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="16"/>
+      <c r="R6" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="14"/>
-      <c r="T6" s="13" t="s">
+      <c r="S6" s="16"/>
+      <c r="T6" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="14"/>
-      <c r="V6" s="13" t="s">
+      <c r="U6" s="16"/>
+      <c r="V6" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="14"/>
-      <c r="X6" s="13" t="s">
+      <c r="W6" s="16"/>
+      <c r="X6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="13" t="s">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="13" t="s">
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="14"/>
+      <c r="AC6" s="16"/>
       <c r="AV6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:48" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="D7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2" t="s">
+      <c r="F7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2" t="s">
+      <c r="H7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="M7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="s">
+      <c r="N7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="O7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2" t="s">
+      <c r="P7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="S7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="T7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="s">
+      <c r="T7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="V7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="s">
+      <c r="V7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="X7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="2" t="s">
+      <c r="X7" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="10" t="s">
         <v>1</v>
       </c>
       <c r="Z7" s="2" t="s">
@@ -899,166 +1004,166 @@
       <c r="B8" s="2">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1940000</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>660000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1450000</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f>F8*$E$45</f>
         <v>870000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>1700000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f>H8*$E$45</f>
         <v>1020000</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="5">
         <v>1955000</v>
       </c>
-      <c r="K8" s="7">
+      <c r="K8" s="5">
         <f>J8*$E$45</f>
         <v>1173000</v>
       </c>
-      <c r="L8" s="7">
+      <c r="L8" s="5">
         <v>1720000</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="5">
         <v>1030000</v>
       </c>
-      <c r="N8" s="7">
+      <c r="N8" s="5">
         <v>1750000</v>
       </c>
-      <c r="O8" s="7">
+      <c r="O8" s="5">
         <f>N8*$E$45</f>
         <v>1050000</v>
       </c>
-      <c r="P8" s="7">
+      <c r="P8" s="5">
         <v>1750000</v>
       </c>
-      <c r="Q8" s="7">
+      <c r="Q8" s="5">
         <f>P8*$E$45</f>
         <v>1050000</v>
       </c>
-      <c r="R8" s="7">
+      <c r="R8" s="5">
         <v>1710000</v>
       </c>
-      <c r="S8" s="7">
+      <c r="S8" s="5">
         <f>R8*$E$45</f>
         <v>1026000</v>
       </c>
-      <c r="T8" s="4"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="7">
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="5">
         <v>3235000</v>
       </c>
-      <c r="W8" s="7">
+      <c r="W8" s="5">
         <f>V8*$E$45</f>
         <v>1941000</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
-      <c r="Z8" s="7">
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="5">
         <v>1760000</v>
       </c>
-      <c r="AA8" s="7">
+      <c r="AA8" s="5">
         <f>Z8*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
     </row>
     <row r="9" spans="2:48" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>1720000</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <v>1020000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>2080000</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <v>1250000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>1760000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <f t="shared" ref="I9:I38" si="0">H9*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>1975000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <f t="shared" ref="K9:K38" si="1">J9*$E$45</f>
         <v>1185000</v>
       </c>
-      <c r="L9" s="7">
+      <c r="L9" s="5">
         <v>2050000</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="5">
         <f>L9*$E$45</f>
         <v>1230000</v>
       </c>
-      <c r="N9" s="7">
+      <c r="N9" s="5">
         <v>2200000</v>
       </c>
-      <c r="O9" s="7">
+      <c r="O9" s="5">
         <f t="shared" ref="O9:O38" si="2">N9*$E$45</f>
         <v>1320000</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="5">
         <v>1870000</v>
       </c>
-      <c r="Q9" s="7">
+      <c r="Q9" s="5">
         <f t="shared" ref="Q9:Q38" si="3">P9*$E$45</f>
         <v>1122000</v>
       </c>
-      <c r="R9" s="7">
+      <c r="R9" s="5">
         <v>2130000</v>
       </c>
-      <c r="S9" s="7">
+      <c r="S9" s="5">
         <f t="shared" ref="S9:S11" si="4">R9*$E$45</f>
         <v>1278000</v>
       </c>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="7">
+      <c r="V9" s="5">
         <v>2080000</v>
       </c>
-      <c r="W9" s="7">
+      <c r="W9" s="5">
         <v>1250000</v>
       </c>
       <c r="X9" s="5"/>
       <c r="Y9" s="5"/>
-      <c r="Z9" s="7">
+      <c r="Z9" s="5">
         <v>1730000</v>
       </c>
-      <c r="AA9" s="7">
+      <c r="AA9" s="5">
         <v>1080000</v>
       </c>
-      <c r="AB9" s="7">
+      <c r="AB9" s="5">
         <v>1150000</v>
       </c>
-      <c r="AC9" s="7">
+      <c r="AC9" s="5">
         <v>690000</v>
       </c>
     </row>
@@ -1067,83 +1172,83 @@
         <f t="shared" ref="B10:B36" si="5">B9+1</f>
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2420000</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1390000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>2080000</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <v>1250000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>1850000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>2220000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <f t="shared" si="1"/>
         <v>1332000</v>
       </c>
-      <c r="L10" s="7">
+      <c r="L10" s="5">
         <v>1880000</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="5">
         <f>L10*$E$45</f>
         <v>1128000</v>
       </c>
-      <c r="N10" s="7">
+      <c r="N10" s="5">
         <v>2245000</v>
       </c>
-      <c r="O10" s="7">
+      <c r="O10" s="5">
         <v>1392000</v>
       </c>
-      <c r="P10" s="7">
+      <c r="P10" s="5">
         <v>1780000</v>
       </c>
-      <c r="Q10" s="7">
+      <c r="Q10" s="5">
         <f t="shared" si="3"/>
         <v>1068000</v>
       </c>
-      <c r="R10" s="7">
+      <c r="R10" s="5">
         <v>2130000</v>
       </c>
-      <c r="S10" s="7">
+      <c r="S10" s="5">
         <f t="shared" si="4"/>
         <v>1278000</v>
       </c>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
-      <c r="V10" s="7">
+      <c r="V10" s="5">
         <v>1880000</v>
       </c>
-      <c r="W10" s="7">
+      <c r="W10" s="5">
         <v>1130000</v>
       </c>
       <c r="X10" s="5"/>
       <c r="Y10" s="5"/>
-      <c r="Z10" s="7">
+      <c r="Z10" s="5">
         <v>2245000</v>
       </c>
-      <c r="AA10" s="7">
+      <c r="AA10" s="5">
         <f>Z10*$E$45</f>
         <v>1347000</v>
       </c>
-      <c r="AB10" s="7">
+      <c r="AB10" s="5">
         <v>1710000</v>
       </c>
-      <c r="AC10" s="7">
+      <c r="AC10" s="5">
         <v>1020000</v>
       </c>
     </row>
@@ -1152,83 +1257,83 @@
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>2600000</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <f>D11*$E$45</f>
         <v>1560000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1790000</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <v>1075000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>1270000</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <v>850000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>2090000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <f t="shared" si="1"/>
         <v>1254000</v>
       </c>
-      <c r="L11" s="7">
+      <c r="L11" s="5">
         <v>1900000</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="5">
         <f>L11*$E$45</f>
         <v>1140000</v>
       </c>
-      <c r="N11" s="7">
+      <c r="N11" s="5">
         <v>2230000</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="5">
         <f t="shared" ref="O11:O16" si="6">N11*$E$45</f>
         <v>1338000</v>
       </c>
-      <c r="P11" s="7">
+      <c r="P11" s="5">
         <v>2410000</v>
       </c>
-      <c r="Q11" s="7">
+      <c r="Q11" s="5">
         <f t="shared" si="3"/>
         <v>1446000</v>
       </c>
-      <c r="R11" s="7">
+      <c r="R11" s="5">
         <v>1790000</v>
       </c>
-      <c r="S11" s="7">
+      <c r="S11" s="5">
         <f t="shared" si="4"/>
         <v>1074000</v>
       </c>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
-      <c r="V11" s="7">
+      <c r="V11" s="5">
         <v>1920000</v>
       </c>
-      <c r="W11" s="7">
+      <c r="W11" s="5">
         <f>V11*$E$45</f>
         <v>1152000</v>
       </c>
       <c r="X11" s="5"/>
       <c r="Y11" s="5"/>
-      <c r="Z11" s="7">
+      <c r="Z11" s="5">
         <v>1760000</v>
       </c>
-      <c r="AA11" s="7">
+      <c r="AA11" s="5">
         <f>Z11*$E$45</f>
         <v>1056000</v>
       </c>
       <c r="AB11" s="5"/>
-      <c r="AC11" s="7">
+      <c r="AC11" s="5">
         <f t="shared" ref="AA11:AC38" si="7">AB11*$E$45</f>
         <v>0</v>
       </c>
@@ -1238,85 +1343,85 @@
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>2420000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <v>1450000</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>1760000</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <v>1060000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>2090000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <f>H12*$E$45</f>
         <v>1254000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>2100000</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <f t="shared" si="1"/>
         <v>1260000</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="5">
         <v>1960000</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="5">
         <v>1180000</v>
       </c>
-      <c r="N12" s="7">
+      <c r="N12" s="5">
         <v>2120000</v>
       </c>
-      <c r="O12" s="7">
+      <c r="O12" s="5">
         <f t="shared" si="6"/>
         <v>1272000</v>
       </c>
-      <c r="P12" s="7">
+      <c r="P12" s="5">
         <v>1900000</v>
       </c>
-      <c r="Q12" s="7">
+      <c r="Q12" s="5">
         <f t="shared" si="3"/>
         <v>1140000</v>
       </c>
-      <c r="R12" s="7">
+      <c r="R12" s="5">
         <v>2002000</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="5">
         <v>1202000</v>
       </c>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
-      <c r="V12" s="7">
+      <c r="V12" s="5">
         <v>2410000</v>
       </c>
-      <c r="W12" s="7">
+      <c r="W12" s="5">
         <v>1440000</v>
       </c>
-      <c r="X12" s="7">
+      <c r="X12" s="5">
         <v>2250000</v>
       </c>
-      <c r="Y12" s="7">
-        <f t="shared" ref="Y12:Y17" si="8">X12*$E$45</f>
+      <c r="Y12" s="5">
+        <f t="shared" ref="Y12:Y19" si="8">X12*$E$45</f>
         <v>1350000</v>
       </c>
-      <c r="Z12" s="7">
+      <c r="Z12" s="5">
         <v>2080000</v>
       </c>
-      <c r="AA12" s="7">
+      <c r="AA12" s="5">
         <f>Z12*$E$45</f>
         <v>1248000</v>
       </c>
       <c r="AB12" s="5"/>
-      <c r="AC12" s="7">
+      <c r="AC12" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1326,85 +1431,85 @@
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>2600000</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <v>1150000</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>2270000</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <v>1362000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>1770000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f>H13*$E$45</f>
         <v>1062000</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>2200000</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <f t="shared" si="1"/>
         <v>1320000</v>
       </c>
-      <c r="L13" s="7">
+      <c r="L13" s="5">
         <v>1830000</v>
       </c>
-      <c r="M13" s="7">
+      <c r="M13" s="5">
         <f>L13*$E$45</f>
         <v>1098000</v>
       </c>
-      <c r="N13" s="7">
+      <c r="N13" s="5">
         <v>1770000</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="5">
         <f t="shared" si="6"/>
         <v>1062000</v>
       </c>
-      <c r="P13" s="7">
+      <c r="P13" s="5">
         <v>1720000</v>
       </c>
-      <c r="Q13" s="7">
+      <c r="Q13" s="5">
         <f t="shared" si="3"/>
         <v>1032000</v>
       </c>
-      <c r="R13" s="7">
+      <c r="R13" s="5">
         <v>1720000</v>
       </c>
-      <c r="S13" s="7">
+      <c r="S13" s="5">
         <v>1032000</v>
       </c>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
-      <c r="V13" s="7">
+      <c r="V13" s="5">
         <v>3616000</v>
       </c>
-      <c r="W13" s="7">
+      <c r="W13" s="5">
         <v>2160000</v>
       </c>
-      <c r="X13" s="7">
+      <c r="X13" s="5">
         <v>2300000</v>
       </c>
-      <c r="Y13" s="7">
+      <c r="Y13" s="5">
         <f t="shared" si="8"/>
         <v>1380000</v>
       </c>
-      <c r="Z13" s="7">
+      <c r="Z13" s="5">
         <v>1700000</v>
       </c>
-      <c r="AA13" s="7">
+      <c r="AA13" s="5">
         <v>850000</v>
       </c>
       <c r="AB13" s="5"/>
-      <c r="AC13" s="7">
+      <c r="AC13" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1414,91 +1519,91 @@
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>2000000</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f>[1]!Table145245678910[[#This Row],[THỰC LÃNH]]</f>
         <v>834000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>1720000</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f>F14*$E$45</f>
         <v>1032000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1800000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f>H14*$E$45</f>
         <v>1080000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>1760000</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <f t="shared" si="1"/>
         <v>1056000</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>2550000</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <f>L14*$E$45</f>
         <v>1530000</v>
       </c>
-      <c r="N14" s="7">
+      <c r="N14" s="5">
         <v>1930000</v>
       </c>
-      <c r="O14" s="7">
+      <c r="O14" s="5">
         <f t="shared" si="6"/>
         <v>1158000</v>
       </c>
-      <c r="P14" s="7">
+      <c r="P14" s="5">
         <v>2400000</v>
       </c>
-      <c r="Q14" s="7">
+      <c r="Q14" s="5">
         <f t="shared" si="3"/>
         <v>1440000</v>
       </c>
-      <c r="R14" s="7">
+      <c r="R14" s="5">
         <v>1730000</v>
       </c>
-      <c r="S14" s="7">
+      <c r="S14" s="5">
         <v>1038000</v>
       </c>
-      <c r="T14" s="7">
+      <c r="T14" s="5">
         <v>1830000</v>
       </c>
-      <c r="U14" s="7">
+      <c r="U14" s="5">
         <f>T14*$E$45</f>
         <v>1098000</v>
       </c>
-      <c r="V14" s="7">
+      <c r="V14" s="5">
         <v>2230000</v>
       </c>
-      <c r="W14" s="7">
+      <c r="W14" s="5">
         <v>1338000</v>
       </c>
-      <c r="X14" s="7">
+      <c r="X14" s="5">
         <v>1800000</v>
       </c>
-      <c r="Y14" s="7">
+      <c r="Y14" s="5">
         <f t="shared" si="8"/>
         <v>1080000</v>
       </c>
       <c r="Z14" s="5"/>
-      <c r="AA14" s="7">
+      <c r="AA14" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB14" s="5"/>
-      <c r="AC14" s="7">
+      <c r="AC14" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1508,89 +1613,89 @@
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>1710000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <v>1020000</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>700000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f>F15*$E$45</f>
         <v>420000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>1920000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f>H15*$E$45</f>
         <v>1152000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>2010000</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <f t="shared" si="1"/>
         <v>1206000</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>1720000</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f>L15*$E$45</f>
         <v>1032000</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <v>2080000</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <f t="shared" si="6"/>
         <v>1248000</v>
       </c>
-      <c r="P15" s="7">
+      <c r="P15" s="5">
         <v>1750000</v>
       </c>
-      <c r="Q15" s="7">
+      <c r="Q15" s="5">
         <f t="shared" si="3"/>
         <v>1050000</v>
       </c>
-      <c r="R15" s="7">
+      <c r="R15" s="5">
         <v>1830000</v>
       </c>
-      <c r="S15" s="7">
+      <c r="S15" s="5">
         <v>1098000</v>
       </c>
-      <c r="T15" s="7">
+      <c r="T15" s="5">
         <v>1830000</v>
       </c>
-      <c r="U15" s="7">
+      <c r="U15" s="5">
         <v>1116000</v>
       </c>
-      <c r="V15" s="7">
+      <c r="V15" s="5">
         <v>2380000</v>
       </c>
-      <c r="W15" s="7">
+      <c r="W15" s="5">
         <v>1428000</v>
       </c>
-      <c r="X15" s="7">
+      <c r="X15" s="5">
         <v>3810000</v>
       </c>
-      <c r="Y15" s="7">
+      <c r="Y15" s="5">
         <f t="shared" si="8"/>
         <v>2286000</v>
       </c>
       <c r="Z15" s="5"/>
-      <c r="AA15" s="7">
+      <c r="AA15" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB15" s="5"/>
-      <c r="AC15" s="7">
+      <c r="AC15" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1600,87 +1705,87 @@
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1930000</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <v>1150000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>1400000</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f>F16*$E$45</f>
         <v>840000</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>3310000</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f>H16*$E$45</f>
         <v>1986000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>1810000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <f t="shared" si="1"/>
         <v>1086000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>2360000</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <f>L16*$E$45</f>
         <v>1416000</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <v>1390000</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <f t="shared" si="6"/>
         <v>834000</v>
       </c>
-      <c r="P16" s="7">
+      <c r="P16" s="5">
         <v>1400000</v>
       </c>
-      <c r="Q16" s="7">
+      <c r="Q16" s="5">
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="15" t="s">
+      <c r="R16" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="15"/>
-      <c r="T16" s="7">
+      <c r="S16" s="17"/>
+      <c r="T16" s="5">
         <v>1740000</v>
       </c>
-      <c r="U16" s="7">
+      <c r="U16" s="5">
         <v>1044000</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="5">
         <v>1750000</v>
       </c>
-      <c r="W16" s="7">
+      <c r="W16" s="5">
         <v>1050000</v>
       </c>
-      <c r="X16" s="7">
+      <c r="X16" s="5">
         <v>1510000</v>
       </c>
-      <c r="Y16" s="7">
+      <c r="Y16" s="5">
         <f t="shared" si="8"/>
         <v>906000</v>
       </c>
       <c r="Z16" s="5"/>
-      <c r="AA16" s="7">
+      <c r="AA16" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB16" s="5"/>
-      <c r="AC16" s="7">
+      <c r="AC16" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1690,83 +1795,83 @@
         <f t="shared" si="5"/>
         <v>10</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="5">
         <v>2060000</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="5">
         <v>1230000</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="5">
         <v>1810000</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="5">
         <v>1086000</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="5">
         <v>2980000</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="5">
         <v>1788000</v>
       </c>
-      <c r="J17" s="8">
+      <c r="J17" s="5">
         <v>1630000</v>
       </c>
-      <c r="K17" s="8">
+      <c r="K17" s="5">
         <v>978000</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="5">
         <v>1960000</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="5">
         <v>1176000</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="5">
         <v>3249000</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="5">
         <v>1950000</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="5">
         <v>1800000</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="5">
         <v>1080000</v>
       </c>
-      <c r="R17" s="8">
+      <c r="R17" s="5">
         <v>1950000</v>
       </c>
-      <c r="S17" s="8">
+      <c r="S17" s="5">
         <v>1170000</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="5">
         <v>1780000</v>
       </c>
-      <c r="U17" s="8">
+      <c r="U17" s="5">
         <v>1068000</v>
       </c>
-      <c r="V17" s="8">
+      <c r="V17" s="5">
         <v>2110000</v>
       </c>
-      <c r="W17" s="8">
+      <c r="W17" s="5">
         <v>1260000</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>700000</v>
       </c>
-      <c r="Y17" s="6">
+      <c r="Y17" s="5">
         <f t="shared" si="8"/>
         <v>420000</v>
       </c>
       <c r="Z17" s="5"/>
-      <c r="AA17" s="7">
+      <c r="AA17" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB17" s="5"/>
-      <c r="AC17" s="7">
+      <c r="AC17" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1776,59 +1881,88 @@
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7">
-        <f t="shared" ref="E18:E38" si="9">D18*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7">
+      <c r="D18" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1080000</v>
+      </c>
+      <c r="F18" s="5">
+        <v>2400000</v>
+      </c>
+      <c r="G18" s="5">
+        <f>F18*$E$45</f>
+        <v>1440000</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2910000</v>
+      </c>
+      <c r="I18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="7">
+        <v>1746000</v>
+      </c>
+      <c r="J18" s="5">
+        <v>2050000</v>
+      </c>
+      <c r="K18" s="5">
+        <f t="shared" si="1"/>
+        <v>1230000</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1950000</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1170000</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1710000</v>
+      </c>
+      <c r="O18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18" s="5"/>
-      <c r="Q18" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R18" s="5"/>
-      <c r="S18" s="7">
-        <f t="shared" ref="S18:S38" si="10">R18*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="7">
-        <f t="shared" ref="W18:W38" si="11">V18*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="5"/>
+        <v>1026000</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1830000</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1100000</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1830000</v>
+      </c>
+      <c r="S18" s="5">
+        <f t="shared" ref="S18:S38" si="9">R18*$E$45</f>
+        <v>1098000</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1700000</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1020000</v>
+      </c>
+      <c r="V18" s="5">
+        <v>2090000</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1260000</v>
+      </c>
+      <c r="X18" s="5">
+        <v>2750000</v>
+      </c>
+      <c r="Y18" s="5">
+        <f t="shared" si="8"/>
+        <v>1650000</v>
+      </c>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="7">
+      <c r="AA18" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB18" s="5"/>
-      <c r="AC18" s="7">
+      <c r="AC18" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1838,59 +1972,90 @@
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7">
+      <c r="D19" s="5">
+        <v>3000000</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1800000</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1940000</v>
+      </c>
+      <c r="G19" s="5">
+        <f>F19*$E$45</f>
+        <v>1164000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2770000</v>
+      </c>
+      <c r="I19" s="5">
+        <f t="shared" si="0"/>
+        <v>1662000</v>
+      </c>
+      <c r="J19" s="5">
+        <v>2140000</v>
+      </c>
+      <c r="K19" s="5">
+        <f t="shared" si="1"/>
+        <v>1284000</v>
+      </c>
+      <c r="L19" s="5">
+        <v>2520000</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1512000</v>
+      </c>
+      <c r="N19" s="5">
+        <v>2360000</v>
+      </c>
+      <c r="O19" s="5">
+        <f t="shared" si="2"/>
+        <v>1416000</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1780000</v>
+      </c>
+      <c r="Q19" s="5">
+        <f t="shared" si="3"/>
+        <v>1068000</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1990000</v>
+      </c>
+      <c r="S19" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="5"/>
-      <c r="Q19" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="5"/>
-      <c r="S19" s="7">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="5"/>
+        <v>1194000</v>
+      </c>
+      <c r="T19" s="5">
+        <v>1000000</v>
+      </c>
+      <c r="U19" s="5">
+        <v>600000</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2050000</v>
+      </c>
+      <c r="W19" s="5">
+        <f t="shared" ref="W19:W38" si="10">V19*$E$45</f>
+        <v>1230000</v>
+      </c>
+      <c r="X19" s="5">
+        <v>3500000</v>
+      </c>
+      <c r="Y19" s="5">
+        <f t="shared" si="8"/>
+        <v>2100000</v>
+      </c>
       <c r="Z19" s="5"/>
-      <c r="AA19" s="7">
+      <c r="AA19" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB19" s="5"/>
-      <c r="AC19" s="7">
+      <c r="AC19" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1900,59 +2065,62 @@
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7">
+      <c r="D20" s="4"/>
+      <c r="E20" s="5">
+        <f t="shared" ref="E20:E38" si="11">D20*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
+        <f t="shared" ref="G20:G38" si="12">F20*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="4"/>
+      <c r="S20" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="5"/>
-      <c r="Q20" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="5"/>
-      <c r="S20" s="7">
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="5"/>
-      <c r="Z20" s="5"/>
-      <c r="AA20" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="5"/>
-      <c r="AC20" s="7">
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1962,59 +2130,62 @@
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7">
+      <c r="D21" s="4"/>
+      <c r="E21" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4"/>
+      <c r="S21" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21" s="5"/>
-      <c r="Q21" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R21" s="5"/>
-      <c r="S21" s="7">
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="5"/>
-      <c r="Z21" s="5"/>
-      <c r="AA21" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="5"/>
-      <c r="AC21" s="7">
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2024,59 +2195,62 @@
         <f t="shared" si="5"/>
         <v>15</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7">
+      <c r="D22" s="4"/>
+      <c r="E22" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4"/>
+      <c r="S22" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="5"/>
-      <c r="Q22" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="5"/>
-      <c r="S22" s="7">
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="5"/>
-      <c r="Z22" s="5"/>
-      <c r="AA22" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="5"/>
-      <c r="AC22" s="7">
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2086,59 +2260,62 @@
         <f t="shared" si="5"/>
         <v>16</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7">
+      <c r="D23" s="4"/>
+      <c r="E23" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="4"/>
+      <c r="S23" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="5"/>
-      <c r="S23" s="7">
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="5"/>
-      <c r="Y23" s="5"/>
-      <c r="Z23" s="5"/>
-      <c r="AA23" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="5"/>
-      <c r="AC23" s="7">
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2148,59 +2325,62 @@
         <f t="shared" si="5"/>
         <v>17</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7">
+      <c r="D24" s="4"/>
+      <c r="E24" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="4"/>
+      <c r="S24" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="5"/>
-      <c r="S24" s="7">
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="5"/>
-      <c r="Z24" s="5"/>
-      <c r="AA24" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="5"/>
-      <c r="AC24" s="7">
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2210,59 +2390,62 @@
         <f t="shared" si="5"/>
         <v>18</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7">
+      <c r="D25" s="4"/>
+      <c r="E25" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="4"/>
+      <c r="S25" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25" s="5"/>
-      <c r="Q25" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R25" s="5"/>
-      <c r="S25" s="7">
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X25" s="5"/>
-      <c r="Y25" s="5"/>
-      <c r="Z25" s="5"/>
-      <c r="AA25" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="7">
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2272,59 +2455,62 @@
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7">
+      <c r="D26" s="4"/>
+      <c r="E26" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="4"/>
+      <c r="S26" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="5"/>
-      <c r="K26" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="5"/>
-      <c r="Q26" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="5"/>
-      <c r="S26" s="7">
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X26" s="5"/>
-      <c r="Y26" s="5"/>
-      <c r="Z26" s="5"/>
-      <c r="AA26" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="7">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2334,59 +2520,62 @@
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7">
+      <c r="D27" s="4"/>
+      <c r="E27" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R27" s="4"/>
+      <c r="S27" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="5"/>
-      <c r="Q27" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R27" s="5"/>
-      <c r="S27" s="7">
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X27" s="5"/>
-      <c r="Y27" s="5"/>
-      <c r="Z27" s="5"/>
-      <c r="AA27" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="5"/>
-      <c r="AC27" s="7">
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2396,59 +2585,62 @@
         <f t="shared" si="5"/>
         <v>21</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7">
+      <c r="D28" s="4"/>
+      <c r="E28" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R28" s="4"/>
+      <c r="S28" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R28" s="5"/>
-      <c r="S28" s="7">
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="5"/>
-      <c r="AC28" s="7">
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2458,59 +2650,62 @@
         <f t="shared" si="5"/>
         <v>22</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7">
+      <c r="D29" s="4"/>
+      <c r="E29" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R29" s="4"/>
+      <c r="S29" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="5"/>
-      <c r="Q29" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="5"/>
-      <c r="S29" s="7">
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X29" s="5"/>
-      <c r="Y29" s="5"/>
-      <c r="Z29" s="5"/>
-      <c r="AA29" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="5"/>
-      <c r="AC29" s="7">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2520,59 +2715,62 @@
         <f t="shared" si="5"/>
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R30" s="4"/>
+      <c r="S30" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5"/>
-      <c r="K30" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="5"/>
-      <c r="Q30" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="5"/>
-      <c r="S30" s="7">
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X30" s="5"/>
-      <c r="Y30" s="5"/>
-      <c r="Z30" s="5"/>
-      <c r="AA30" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="5"/>
-      <c r="AC30" s="7">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2582,59 +2780,62 @@
         <f t="shared" si="5"/>
         <v>24</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7">
+      <c r="D31" s="4"/>
+      <c r="E31" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R31" s="4"/>
+      <c r="S31" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="5"/>
-      <c r="Q31" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="5"/>
-      <c r="S31" s="7">
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X31" s="5"/>
-      <c r="Y31" s="5"/>
-      <c r="Z31" s="5"/>
-      <c r="AA31" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="5"/>
-      <c r="AC31" s="7">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2644,59 +2845,62 @@
         <f t="shared" si="5"/>
         <v>25</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7">
+      <c r="D32" s="4"/>
+      <c r="E32" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R32" s="4"/>
+      <c r="S32" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="5"/>
-      <c r="K32" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R32" s="5"/>
-      <c r="S32" s="7">
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X32" s="5"/>
-      <c r="Y32" s="5"/>
-      <c r="Z32" s="5"/>
-      <c r="AA32" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="5"/>
-      <c r="AC32" s="7">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2706,59 +2910,62 @@
         <f t="shared" si="5"/>
         <v>26</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R33" s="4"/>
+      <c r="S33" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R33" s="5"/>
-      <c r="S33" s="7">
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X33" s="5"/>
-      <c r="Y33" s="5"/>
-      <c r="Z33" s="5"/>
-      <c r="AA33" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="5"/>
-      <c r="AC33" s="7">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2768,59 +2975,62 @@
         <f t="shared" si="5"/>
         <v>27</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7">
+      <c r="D34" s="4"/>
+      <c r="E34" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R34" s="4"/>
+      <c r="S34" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="5"/>
-      <c r="Q34" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R34" s="5"/>
-      <c r="S34" s="7">
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X34" s="5"/>
-      <c r="Y34" s="5"/>
-      <c r="Z34" s="5"/>
-      <c r="AA34" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="5"/>
-      <c r="AC34" s="7">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2830,59 +3040,62 @@
         <f t="shared" si="5"/>
         <v>28</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7">
+      <c r="D35" s="4"/>
+      <c r="E35" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R35" s="4"/>
+      <c r="S35" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="5"/>
-      <c r="K35" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R35" s="5"/>
-      <c r="S35" s="7">
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X35" s="5"/>
-      <c r="Y35" s="5"/>
-      <c r="Z35" s="5"/>
-      <c r="AA35" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="5"/>
-      <c r="AC35" s="7">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2892,183 +3105,192 @@
         <f t="shared" si="5"/>
         <v>29</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7">
+      <c r="D36" s="4"/>
+      <c r="E36" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R36" s="4"/>
+      <c r="S36" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="5"/>
-      <c r="K36" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P36" s="5"/>
-      <c r="Q36" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R36" s="5"/>
-      <c r="S36" s="7">
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="5"/>
-      <c r="Y36" s="5"/>
-      <c r="Z36" s="5"/>
-      <c r="AA36" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="5"/>
-      <c r="AC36" s="7">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
-        <f t="shared" ref="B37:B38" si="12">B36+1</f>
+        <f t="shared" ref="B37:B38" si="13">B36+1</f>
         <v>30</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R37" s="4"/>
+      <c r="S37" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="5"/>
-      <c r="K37" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P37" s="5"/>
-      <c r="Q37" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R37" s="5"/>
-      <c r="S37" s="7">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X37" s="5"/>
-      <c r="Y37" s="5"/>
-      <c r="Z37" s="5"/>
-      <c r="AA37" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="5"/>
-      <c r="AC37" s="7">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
+        <f t="shared" si="13"/>
+        <v>31</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4"/>
+      <c r="G38" s="5">
         <f t="shared" si="12"/>
-        <v>31</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7">
+        <v>0</v>
+      </c>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="4"/>
+      <c r="S38" s="5">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="5"/>
-      <c r="K38" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P38" s="5"/>
-      <c r="Q38" s="7">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R38" s="5"/>
-      <c r="S38" s="7">
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="5">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="7">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X38" s="5"/>
-      <c r="Y38" s="5"/>
-      <c r="Z38" s="5"/>
-      <c r="AA38" s="7">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="5"/>
-      <c r="AC38" s="7">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3107,13 +3329,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{979600B4-8072-4F20-B214-F928A4009CA5}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="B5:O45"/>
+  <dimension ref="B5:AL45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomRight" activeCell="H8" sqref="H8:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3147,38 +3369,38 @@
     <col min="31" max="31" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:15" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:15" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="11" t="s">
+    <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13" t="s">
+      <c r="E6" s="16"/>
+      <c r="F6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="13" t="s">
+      <c r="G6" s="16"/>
+      <c r="H6" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="13" t="s">
+      <c r="I6" s="16"/>
+      <c r="J6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13" t="s">
+      <c r="K6" s="16"/>
+      <c r="L6" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="14"/>
-      <c r="N6" s="13" t="s">
+      <c r="M6" s="16"/>
+      <c r="N6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="14"/>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="O6" s="16"/>
+    </row>
+    <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -3222,41 +3444,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="5">
         <v>1960000</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="5">
         <v>1180000</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="5">
         <v>1950000</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G17" si="0">F8*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="5">
         <v>1940000</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="5">
         <f>H8*$E$45</f>
         <v>1164000</v>
       </c>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+    </row>
+    <row r="9" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>B8+1</f>
         <v>2</v>
@@ -3264,38 +3486,38 @@
       <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="5">
         <v>2500000</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f>D9*$E$45</f>
         <v>1500000</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <v>1950000</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>1170000</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="5">
         <v>2190000</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="5">
         <v>1315000</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="5">
         <v>1750000</v>
       </c>
-      <c r="K9" s="7">
+      <c r="K9" s="5">
         <v>880000</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+    </row>
+    <row r="10" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ref="B10:B38" si="1">B9+1</f>
         <v>3</v>
@@ -3303,37 +3525,37 @@
       <c r="C10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="5">
         <v>2610000</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="5">
         <v>1570000</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F10" s="5">
         <v>2500000</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>1500000</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="5">
         <v>2520000</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="5">
         <v>1510000</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="5">
         <v>2100000</v>
       </c>
-      <c r="K10" s="7">
+      <c r="K10" s="5">
         <v>1050000</v>
       </c>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+    </row>
+    <row r="11" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -3341,38 +3563,38 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="5">
         <v>2550000</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="5">
         <v>1530000</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F11" s="5">
         <v>1400000</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>840000</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="5">
         <v>1820000</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="5">
         <f>H11*$E$45</f>
         <v>1092000</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="5">
         <v>2300000</v>
       </c>
-      <c r="K11" s="7">
+      <c r="K11" s="5">
         <v>1150000</v>
       </c>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+    </row>
+    <row r="12" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -3380,38 +3602,38 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="5">
         <v>1950000</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="5">
         <f>D12*$E$45</f>
         <v>1170000</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="5">
         <v>1850000</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>2070000</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="5">
         <v>1244000</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="5">
         <v>1800000</v>
       </c>
-      <c r="K12" s="7">
+      <c r="K12" s="5">
         <v>900000</v>
       </c>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+    </row>
+    <row r="13" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -3419,39 +3641,39 @@
       <c r="C13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="5">
         <v>2000000</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E13" s="5">
         <f>D13*$E$45</f>
         <v>1200000</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="5">
         <v>1800000</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>1080000</v>
       </c>
-      <c r="H13" s="7">
+      <c r="H13" s="5">
         <v>2270000</v>
       </c>
-      <c r="I13" s="7">
+      <c r="I13" s="5">
         <f>H13*$E$45</f>
         <v>1362000</v>
       </c>
-      <c r="J13" s="7">
+      <c r="J13" s="5">
         <v>2000000</v>
       </c>
-      <c r="K13" s="7">
+      <c r="K13" s="5">
         <v>1000000</v>
       </c>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+    </row>
+    <row r="14" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -3459,43 +3681,43 @@
       <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="5">
         <v>2040000</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="5">
         <f>D14*$E$45</f>
         <v>1224000</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F14" s="5">
         <v>1900000</v>
       </c>
-      <c r="G14" s="7">
+      <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>2180000</v>
       </c>
-      <c r="I14" s="7">
+      <c r="I14" s="5">
         <f>H14*$E$45</f>
         <v>1308000</v>
       </c>
-      <c r="J14" s="7">
+      <c r="J14" s="5">
         <v>2700000</v>
       </c>
-      <c r="K14" s="7">
+      <c r="K14" s="5">
         <v>1350000</v>
       </c>
-      <c r="L14" s="7">
+      <c r="L14" s="5">
         <v>930000</v>
       </c>
-      <c r="M14" s="7">
+      <c r="M14" s="5">
         <v>540000</v>
       </c>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+    </row>
+    <row r="15" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -3503,49 +3725,52 @@
       <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="5">
         <v>2400000</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E15" s="5">
         <f>D15*$E$45</f>
         <v>1440000</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F15" s="5">
         <v>1850000</v>
       </c>
-      <c r="G15" s="7">
+      <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>1110000</v>
       </c>
-      <c r="H15" s="7">
+      <c r="H15" s="5">
         <v>2340000</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I15" s="5">
         <f>H15*$E$45</f>
         <v>1404000</v>
       </c>
-      <c r="J15" s="7">
+      <c r="J15" s="5">
         <v>1800000</v>
       </c>
-      <c r="K15" s="7">
+      <c r="K15" s="5">
         <v>900000</v>
       </c>
-      <c r="L15" s="7">
+      <c r="L15" s="5">
         <v>900000</v>
       </c>
-      <c r="M15" s="7">
+      <c r="M15" s="5">
         <f>L15*$E$45</f>
         <v>540000</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N15" s="5">
         <v>1100000</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="5">
         <f>N15*$E$45</f>
         <v>660000</v>
       </c>
-    </row>
-    <row r="16" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AL15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="2:38" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -3553,43 +3778,43 @@
       <c r="C16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="5">
         <v>1850000</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="5">
         <f>D16*$E$45</f>
         <v>1110000</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F16" s="5">
         <v>1900000</v>
       </c>
-      <c r="G16" s="7">
+      <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>1140000</v>
       </c>
-      <c r="H16" s="7">
+      <c r="H16" s="5">
         <v>1690000</v>
       </c>
-      <c r="I16" s="7">
+      <c r="I16" s="5">
         <f>H16*$E$45</f>
         <v>1014000</v>
       </c>
-      <c r="J16" s="7">
+      <c r="J16" s="5">
         <v>1750000</v>
       </c>
-      <c r="K16" s="7">
+      <c r="K16" s="5">
         <v>875000</v>
       </c>
-      <c r="L16" s="7">
+      <c r="L16" s="5">
         <v>1360000</v>
       </c>
-      <c r="M16" s="7">
+      <c r="M16" s="5">
         <v>817000</v>
       </c>
-      <c r="N16" s="7">
+      <c r="N16" s="5">
         <v>1350000</v>
       </c>
-      <c r="O16" s="7">
+      <c r="O16" s="5">
         <f>N16*$E$45</f>
         <v>810000</v>
       </c>
@@ -3602,39 +3827,39 @@
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>1890000</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E17" s="5">
         <v>1135000</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F17" s="5">
         <v>750000</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>450000</v>
       </c>
-      <c r="H17" s="7">
+      <c r="H17" s="5">
         <v>1550000</v>
       </c>
-      <c r="I17" s="7">
+      <c r="I17" s="5">
         <v>930000</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="J17" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="7">
+      <c r="K17" s="19"/>
+      <c r="L17" s="5">
         <v>1550000</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="5">
         <v>930000</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="5">
         <v>1800000</v>
       </c>
-      <c r="O17" s="7">
+      <c r="O17" s="5">
         <v>1080000</v>
       </c>
     </row>
@@ -3646,18 +3871,38 @@
       <c r="C18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="7"/>
+      <c r="D18" s="5">
+        <v>1950000</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1170000</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="6">
+        <v>1860000</v>
+      </c>
+      <c r="I18" s="7">
+        <v>1116000</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="19"/>
+      <c r="L18" s="6">
+        <v>1500000</v>
+      </c>
+      <c r="M18" s="7">
+        <v>900000</v>
+      </c>
+      <c r="N18" s="7">
+        <v>1650000</v>
+      </c>
+      <c r="O18" s="7">
+        <v>990000</v>
+      </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
@@ -3667,18 +3912,36 @@
       <c r="C19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
-      <c r="O19" s="7"/>
+      <c r="D19" s="6">
+        <v>2050000</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1230000</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="6">
+        <v>1850000</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1110000</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="K19" s="19"/>
+      <c r="L19" s="6">
+        <v>1250000</v>
+      </c>
+      <c r="M19" s="6">
+        <v>750000</v>
+      </c>
+      <c r="N19" s="7">
+        <v>1450000</v>
+      </c>
+      <c r="O19" s="6">
+        <v>870000</v>
+      </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
@@ -3688,18 +3951,18 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-      <c r="O20" s="7"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -3709,18 +3972,18 @@
       <c r="C21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="7"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-      <c r="O21" s="7"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
@@ -3730,18 +3993,18 @@
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-      <c r="O22" s="7"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
@@ -3751,18 +4014,18 @@
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-      <c r="O23" s="7"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="5"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
@@ -3772,18 +4035,18 @@
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="7"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="5"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
@@ -3793,18 +4056,18 @@
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-      <c r="O25" s="7"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="5"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
@@ -3814,18 +4077,18 @@
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
-      <c r="O26" s="7"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="5"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
@@ -3835,18 +4098,18 @@
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
-      <c r="O27" s="7"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="5"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
@@ -3856,18 +4119,18 @@
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="5"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="7"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="5"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
@@ -3877,18 +4140,18 @@
       <c r="C29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="7"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
-      <c r="O29" s="7"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="5"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
@@ -3898,18 +4161,18 @@
       <c r="C30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="5"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
-      <c r="O30" s="7"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="5"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
@@ -3919,18 +4182,18 @@
       <c r="C31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="5"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
-      <c r="O31" s="7"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="5"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
@@ -3940,18 +4203,18 @@
       <c r="C32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="7"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="5"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
@@ -3961,18 +4224,18 @@
       <c r="C33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="5"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="7"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="7"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
-      <c r="O33" s="7"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="23"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="5"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
@@ -3982,18 +4245,18 @@
       <c r="C34" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
-      <c r="O34" s="7"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="5"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
@@ -4003,18 +4266,18 @@
       <c r="C35" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="5"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="7"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="5"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
@@ -4024,18 +4287,18 @@
       <c r="C36" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="5"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
-      <c r="O36" s="7"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="5"/>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
@@ -4045,18 +4308,18 @@
       <c r="C37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="5"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="7"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="7"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
-      <c r="N37" s="5"/>
-      <c r="O37" s="7"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="5"/>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
@@ -4066,18 +4329,18 @@
       <c r="C38" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="5"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="7"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="7"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
-      <c r="N38" s="5"/>
-      <c r="O38" s="7"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="25"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="5"/>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
@@ -4089,14 +4352,17 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="8">
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="N6:O6"/>
+  <mergeCells count="11">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="F18:G38"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B63038-5FB6-4BDC-89BF-2A3A4EB53131}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1D4D3-F07C-4AE9-9151-B64E7CF0C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="SUN" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
   <si>
     <t>DOANH THU</t>
   </si>
@@ -374,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -407,8 +407,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -424,12 +427,6 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -453,6 +450,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,21 +498,23 @@
       <sheetName val="10-01 (1)"/>
       <sheetName val="11-01 "/>
       <sheetName val="12-01"/>
+      <sheetName val="13-01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -814,11 +820,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:AV45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="P8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -854,62 +860,62 @@
   <sheetData>
     <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:48" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="15"/>
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="16"/>
-      <c r="P6" s="15" t="s">
+      <c r="O6" s="17"/>
+      <c r="P6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="15" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="16"/>
-      <c r="T6" s="15" t="s">
+      <c r="S6" s="17"/>
+      <c r="T6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="16"/>
-      <c r="V6" s="15" t="s">
+      <c r="U6" s="17"/>
+      <c r="V6" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="16"/>
-      <c r="X6" s="15" t="s">
+      <c r="W6" s="17"/>
+      <c r="X6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="16"/>
-      <c r="Z6" s="15" t="s">
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="16"/>
-      <c r="AB6" s="15" t="s">
+      <c r="AA6" s="17"/>
+      <c r="AB6" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="16"/>
+      <c r="AC6" s="17"/>
       <c r="AV6" t="s">
         <v>33</v>
       </c>
@@ -1061,8 +1067,8 @@
         <f>R8*$E$45</f>
         <v>1026000</v>
       </c>
-      <c r="T8" s="12"/>
-      <c r="U8" s="12"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="29"/>
       <c r="V8" s="5">
         <v>3235000</v>
       </c>
@@ -1070,8 +1076,8 @@
         <f>V8*$E$45</f>
         <v>1941000</v>
       </c>
-      <c r="X8" s="12"/>
-      <c r="Y8" s="12"/>
+      <c r="X8" s="29"/>
+      <c r="Y8" s="29"/>
       <c r="Z8" s="5">
         <v>1760000</v>
       </c>
@@ -1144,16 +1150,16 @@
         <f t="shared" ref="S9:S11" si="4">R9*$E$45</f>
         <v>1278000</v>
       </c>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
       <c r="V9" s="5">
         <v>2080000</v>
       </c>
       <c r="W9" s="5">
         <v>1250000</v>
       </c>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
       <c r="Z9" s="5">
         <v>1730000</v>
       </c>
@@ -1228,16 +1234,16 @@
         <f t="shared" si="4"/>
         <v>1278000</v>
       </c>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
       <c r="V10" s="5">
         <v>1880000</v>
       </c>
       <c r="W10" s="5">
         <v>1130000</v>
       </c>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
       <c r="Z10" s="5">
         <v>2245000</v>
       </c>
@@ -1314,8 +1320,8 @@
         <f t="shared" si="4"/>
         <v>1074000</v>
       </c>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
       <c r="V11" s="5">
         <v>1920000</v>
       </c>
@@ -1323,8 +1329,8 @@
         <f>V11*$E$45</f>
         <v>1152000</v>
       </c>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
       <c r="Z11" s="5">
         <v>1760000</v>
       </c>
@@ -1332,8 +1338,8 @@
         <f>Z11*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="AB11" s="5"/>
-      <c r="AC11" s="5">
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27">
         <f t="shared" ref="AA11:AC38" si="7">AB11*$E$45</f>
         <v>0</v>
       </c>
@@ -1398,8 +1404,8 @@
       <c r="S12" s="5">
         <v>1202000</v>
       </c>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
       <c r="V12" s="5">
         <v>2410000</v>
       </c>
@@ -1420,8 +1426,8 @@
         <f>Z12*$E$45</f>
         <v>1248000</v>
       </c>
-      <c r="AB12" s="5"/>
-      <c r="AC12" s="5">
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1487,8 +1493,8 @@
       <c r="S13" s="5">
         <v>1032000</v>
       </c>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
       <c r="V13" s="5">
         <v>3616000</v>
       </c>
@@ -1508,8 +1514,8 @@
       <c r="AA13" s="5">
         <v>850000</v>
       </c>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5">
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1597,13 +1603,13 @@
         <f t="shared" si="8"/>
         <v>1080000</v>
       </c>
-      <c r="Z14" s="5"/>
-      <c r="AA14" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5">
+      <c r="Z14" s="27"/>
+      <c r="AA14" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="27"/>
+      <c r="AC14" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1689,13 +1695,13 @@
         <f t="shared" si="8"/>
         <v>2286000</v>
       </c>
-      <c r="Z15" s="5"/>
-      <c r="AA15" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5">
+      <c r="Z15" s="27"/>
+      <c r="AA15" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="27"/>
+      <c r="AC15" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1756,10 +1762,10 @@
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="17" t="s">
+      <c r="R16" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="17"/>
+      <c r="S16" s="18"/>
       <c r="T16" s="5">
         <v>1740000</v>
       </c>
@@ -1779,13 +1785,13 @@
         <f t="shared" si="8"/>
         <v>906000</v>
       </c>
-      <c r="Z16" s="5"/>
-      <c r="AA16" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="5"/>
-      <c r="AC16" s="5">
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1865,13 +1871,13 @@
         <f t="shared" si="8"/>
         <v>420000</v>
       </c>
-      <c r="Z17" s="5"/>
-      <c r="AA17" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="5"/>
-      <c r="AC17" s="5">
+      <c r="Z17" s="27"/>
+      <c r="AA17" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="27"/>
+      <c r="AC17" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1956,13 +1962,13 @@
         <f t="shared" si="8"/>
         <v>1650000</v>
       </c>
-      <c r="Z18" s="5"/>
-      <c r="AA18" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5">
+      <c r="Z18" s="27"/>
+      <c r="AA18" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="27"/>
+      <c r="AC18" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2049,13 +2055,13 @@
         <f t="shared" si="8"/>
         <v>2100000</v>
       </c>
-      <c r="Z19" s="5"/>
-      <c r="AA19" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="5"/>
-      <c r="AC19" s="5">
+      <c r="Z19" s="27"/>
+      <c r="AA19" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="27"/>
+      <c r="AC19" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2068,59 +2074,79 @@
       <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5">
-        <f t="shared" ref="E20:E38" si="11">D20*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="5">
-        <f t="shared" ref="G20:G38" si="12">F20*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20" s="4"/>
+      <c r="D20" s="6">
+        <v>2230000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1340000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1460000</v>
+      </c>
+      <c r="G20" s="6">
+        <v>876000</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2075000</v>
+      </c>
+      <c r="I20" s="6">
+        <v>1245000</v>
+      </c>
+      <c r="J20" s="6">
+        <v>2020000</v>
+      </c>
+      <c r="K20" s="7">
+        <v>1212000</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1910000</v>
+      </c>
+      <c r="M20" s="7">
+        <v>1146000</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1250000</v>
+      </c>
+      <c r="O20" s="6">
+        <v>750000</v>
+      </c>
+      <c r="P20" s="12">
+        <v>2280000</v>
+      </c>
       <c r="Q20" s="5">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
-      <c r="Z20" s="4"/>
-      <c r="AA20" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="4"/>
-      <c r="AC20" s="5">
+        <v>1368000</v>
+      </c>
+      <c r="R20" s="6">
+        <v>1942000</v>
+      </c>
+      <c r="S20" s="7">
+        <v>1165000</v>
+      </c>
+      <c r="T20" s="6">
+        <v>1935000</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1161000</v>
+      </c>
+      <c r="V20" s="6">
+        <v>1900000</v>
+      </c>
+      <c r="W20" s="6">
+        <v>1140000</v>
+      </c>
+      <c r="X20" s="7">
+        <v>2970000</v>
+      </c>
+      <c r="Y20" s="7">
+        <v>1782000</v>
+      </c>
+      <c r="Z20" s="28"/>
+      <c r="AA20" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="28"/>
+      <c r="AC20" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2135,12 +2161,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E20:E38" si="11">D21*$E$45</f>
         <v>0</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G20:G38" si="12">F21*$E$45</f>
         <v>0</v>
       </c>
       <c r="H21" s="4"/>
@@ -2160,8 +2186,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="5">
+      <c r="P21" s="28"/>
+      <c r="Q21" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2179,13 +2205,13 @@
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="4"/>
-      <c r="AA21" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="4"/>
-      <c r="AC21" s="5">
+      <c r="Z21" s="28"/>
+      <c r="AA21" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="28"/>
+      <c r="AC21" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2225,8 +2251,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="5">
+      <c r="P22" s="28"/>
+      <c r="Q22" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2244,13 +2270,13 @@
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="4"/>
-      <c r="AA22" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="4"/>
-      <c r="AC22" s="5">
+      <c r="Z22" s="28"/>
+      <c r="AA22" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="28"/>
+      <c r="AC22" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2290,8 +2316,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="5">
+      <c r="P23" s="28"/>
+      <c r="Q23" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2309,13 +2335,13 @@
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="4"/>
-      <c r="AA23" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="4"/>
-      <c r="AC23" s="5">
+      <c r="Z23" s="28"/>
+      <c r="AA23" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="28"/>
+      <c r="AC23" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2355,8 +2381,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="5">
+      <c r="P24" s="28"/>
+      <c r="Q24" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2374,13 +2400,13 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="4"/>
-      <c r="AA24" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="4"/>
-      <c r="AC24" s="5">
+      <c r="Z24" s="28"/>
+      <c r="AA24" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="28"/>
+      <c r="AC24" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2420,8 +2446,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="5">
+      <c r="P25" s="28"/>
+      <c r="Q25" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2439,13 +2465,13 @@
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="4"/>
-      <c r="AA25" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="4"/>
-      <c r="AC25" s="5">
+      <c r="Z25" s="28"/>
+      <c r="AA25" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="28"/>
+      <c r="AC25" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2485,8 +2511,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="5">
+      <c r="P26" s="28"/>
+      <c r="Q26" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2504,13 +2530,13 @@
       </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="4"/>
-      <c r="AA26" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="4"/>
-      <c r="AC26" s="5">
+      <c r="Z26" s="28"/>
+      <c r="AA26" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="28"/>
+      <c r="AC26" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2550,8 +2576,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="5">
+      <c r="P27" s="28"/>
+      <c r="Q27" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2569,13 +2595,13 @@
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="4"/>
-      <c r="AA27" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="4"/>
-      <c r="AC27" s="5">
+      <c r="Z27" s="28"/>
+      <c r="AA27" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="28"/>
+      <c r="AC27" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2615,8 +2641,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="5">
+      <c r="P28" s="28"/>
+      <c r="Q28" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2634,13 +2660,13 @@
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="5">
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2680,8 +2706,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="5">
+      <c r="P29" s="28"/>
+      <c r="Q29" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2699,13 +2725,13 @@
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="4"/>
-      <c r="AA29" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="4"/>
-      <c r="AC29" s="5">
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2745,8 +2771,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="5">
+      <c r="P30" s="28"/>
+      <c r="Q30" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2764,13 +2790,13 @@
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="4"/>
-      <c r="AA30" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="4"/>
-      <c r="AC30" s="5">
+      <c r="Z30" s="28"/>
+      <c r="AA30" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="28"/>
+      <c r="AC30" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2810,8 +2836,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="5">
+      <c r="P31" s="28"/>
+      <c r="Q31" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2829,13 +2855,13 @@
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="4"/>
-      <c r="AA31" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="4"/>
-      <c r="AC31" s="5">
+      <c r="Z31" s="28"/>
+      <c r="AA31" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="28"/>
+      <c r="AC31" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2875,8 +2901,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="5">
+      <c r="P32" s="28"/>
+      <c r="Q32" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2894,13 +2920,13 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="4"/>
-      <c r="AA32" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="4"/>
-      <c r="AC32" s="5">
+      <c r="Z32" s="28"/>
+      <c r="AA32" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="28"/>
+      <c r="AC32" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2940,8 +2966,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="5">
+      <c r="P33" s="28"/>
+      <c r="Q33" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2959,13 +2985,13 @@
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="4"/>
-      <c r="AA33" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="4"/>
-      <c r="AC33" s="5">
+      <c r="Z33" s="28"/>
+      <c r="AA33" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="28"/>
+      <c r="AC33" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3005,8 +3031,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="5">
+      <c r="P34" s="28"/>
+      <c r="Q34" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3024,13 +3050,13 @@
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="4"/>
-      <c r="AA34" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="4"/>
-      <c r="AC34" s="5">
+      <c r="Z34" s="28"/>
+      <c r="AA34" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="28"/>
+      <c r="AC34" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3070,8 +3096,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="5">
+      <c r="P35" s="28"/>
+      <c r="Q35" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3089,13 +3115,13 @@
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="4"/>
-      <c r="AA35" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="4"/>
-      <c r="AC35" s="5">
+      <c r="Z35" s="28"/>
+      <c r="AA35" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="28"/>
+      <c r="AC35" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3135,8 +3161,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="5">
+      <c r="P36" s="28"/>
+      <c r="Q36" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3154,13 +3180,13 @@
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="4"/>
-      <c r="AA36" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="4"/>
-      <c r="AC36" s="5">
+      <c r="Z36" s="28"/>
+      <c r="AA36" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="28"/>
+      <c r="AC36" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3200,8 +3226,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="4"/>
-      <c r="Q37" s="5">
+      <c r="P37" s="28"/>
+      <c r="Q37" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3219,13 +3245,13 @@
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="4"/>
-      <c r="AA37" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="4"/>
-      <c r="AC37" s="5">
+      <c r="Z37" s="28"/>
+      <c r="AA37" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="28"/>
+      <c r="AC37" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3265,8 +3291,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="4"/>
-      <c r="Q38" s="5">
+      <c r="P38" s="28"/>
+      <c r="Q38" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3284,13 +3310,13 @@
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="4"/>
-      <c r="AA38" s="5">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="4"/>
-      <c r="AC38" s="5">
+      <c r="Z38" s="28"/>
+      <c r="AA38" s="27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="28"/>
+      <c r="AC38" s="27">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3331,11 +3357,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:AL45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="H8" sqref="H8:H19"/>
+      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3371,34 +3397,34 @@
   <sheetData>
     <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="26"/>
+      <c r="D6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="15" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="15" t="s">
+      <c r="G6" s="17"/>
+      <c r="H6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="15" t="s">
+      <c r="I6" s="17"/>
+      <c r="J6" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="16"/>
-      <c r="L6" s="15" t="s">
+      <c r="K6" s="17"/>
+      <c r="L6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="16"/>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="17"/>
+      <c r="N6" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="16"/>
+      <c r="O6" s="17"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3846,10 +3872,12 @@
       <c r="I17" s="5">
         <v>930000</v>
       </c>
-      <c r="J17" s="18" t="s">
+      <c r="J17" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K17" s="19"/>
+      <c r="K17" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L17" s="5">
         <v>1550000</v>
       </c>
@@ -3877,20 +3905,22 @@
       <c r="E18" s="5">
         <v>1170000</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="21"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="6">
         <v>1860000</v>
       </c>
       <c r="I18" s="7">
         <v>1116000</v>
       </c>
-      <c r="J18" s="18" t="s">
+      <c r="J18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K18" s="19"/>
+      <c r="K18" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L18" s="6">
         <v>1500000</v>
       </c>
@@ -3918,18 +3948,20 @@
       <c r="E19" s="6">
         <v>1230000</v>
       </c>
-      <c r="F19" s="22"/>
-      <c r="G19" s="23"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
       <c r="H19" s="6">
         <v>1850000</v>
       </c>
       <c r="I19" s="6">
         <v>1110000</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="K19" s="19"/>
+      <c r="K19" s="13" t="s">
+        <v>34</v>
+      </c>
       <c r="L19" s="6">
         <v>1250000</v>
       </c>
@@ -3951,18 +3983,38 @@
       <c r="C20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="5"/>
+      <c r="D20" s="6">
+        <v>1950000</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1170000</v>
+      </c>
+      <c r="F20" s="21"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="6">
+        <v>1200000</v>
+      </c>
+      <c r="I20" s="7">
+        <v>720000</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="L20" s="6">
+        <v>1000000</v>
+      </c>
+      <c r="M20" s="7">
+        <v>600000</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1350000</v>
+      </c>
+      <c r="O20" s="7">
+        <v>810000</v>
+      </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
@@ -3974,8 +4026,8 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="23"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="22"/>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
@@ -3995,8 +4047,8 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="23"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22"/>
       <c r="H22" s="4"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
@@ -4016,8 +4068,8 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="23"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
@@ -4037,8 +4089,8 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="22"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
@@ -4058,8 +4110,8 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="23"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="22"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
@@ -4079,8 +4131,8 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="23"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="22"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
@@ -4100,8 +4152,8 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="23"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="22"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
@@ -4121,8 +4173,8 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="23"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="22"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
@@ -4142,8 +4194,8 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="23"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="22"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
@@ -4163,8 +4215,8 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="23"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="22"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
@@ -4184,8 +4236,8 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="23"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="22"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
@@ -4205,8 +4257,8 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="23"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
@@ -4226,8 +4278,8 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
@@ -4247,8 +4299,8 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="23"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="22"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
@@ -4268,8 +4320,8 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="23"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="22"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
@@ -4289,8 +4341,8 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="23"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="22"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
@@ -4310,8 +4362,8 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="23"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="22"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
@@ -4331,8 +4383,8 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="4"/>
@@ -4352,16 +4404,13 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="11">
+  <mergeCells count="8">
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="J19:K19"/>
     <mergeCell ref="F18:G38"/>
-    <mergeCell ref="J17:K17"/>
     <mergeCell ref="N6:O6"/>
     <mergeCell ref="L6:M6"/>
   </mergeCells>

--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F1D4D3-F07C-4AE9-9151-B64E7CF0C572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6CAC4F-ECDC-44BA-82A1-95C4EE1DE03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="1" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="SUN" sheetId="1" r:id="rId1"/>
@@ -413,6 +413,13 @@
     <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -450,13 +457,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -499,22 +499,26 @@
       <sheetName val="11-01 "/>
       <sheetName val="12-01"/>
       <sheetName val="13-01"/>
+      <sheetName val="14-01"/>
+      <sheetName val="15-01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -820,11 +824,11 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="B5:AV45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6:E6"/>
+      <selection pane="bottomRight" activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -860,62 +864,62 @@
   <sheetData>
     <row r="5" spans="2:48" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:48" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="15"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="16" t="s">
+      <c r="O6" s="20"/>
+      <c r="P6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="16" t="s">
+      <c r="S6" s="20"/>
+      <c r="T6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="17"/>
-      <c r="V6" s="16" t="s">
+      <c r="U6" s="20"/>
+      <c r="V6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="17"/>
-      <c r="X6" s="16" t="s">
+      <c r="W6" s="20"/>
+      <c r="X6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="16" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="16" t="s">
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="AC6" s="17"/>
+      <c r="AC6" s="20"/>
       <c r="AV6" t="s">
         <v>33</v>
       </c>
@@ -1067,8 +1071,8 @@
         <f>R8*$E$45</f>
         <v>1026000</v>
       </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
       <c r="V8" s="5">
         <v>3235000</v>
       </c>
@@ -1076,8 +1080,8 @@
         <f>V8*$E$45</f>
         <v>1941000</v>
       </c>
-      <c r="X8" s="29"/>
-      <c r="Y8" s="29"/>
+      <c r="X8" s="16"/>
+      <c r="Y8" s="16"/>
       <c r="Z8" s="5">
         <v>1760000</v>
       </c>
@@ -1338,8 +1342,8 @@
         <f>Z11*$E$45</f>
         <v>1056000</v>
       </c>
-      <c r="AB11" s="27"/>
-      <c r="AC11" s="27">
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14">
         <f t="shared" ref="AA11:AC38" si="7">AB11*$E$45</f>
         <v>0</v>
       </c>
@@ -1426,8 +1430,8 @@
         <f>Z12*$E$45</f>
         <v>1248000</v>
       </c>
-      <c r="AB12" s="27"/>
-      <c r="AC12" s="27">
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1514,8 +1518,8 @@
       <c r="AA13" s="5">
         <v>850000</v>
       </c>
-      <c r="AB13" s="27"/>
-      <c r="AC13" s="27">
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1603,13 +1607,13 @@
         <f t="shared" si="8"/>
         <v>1080000</v>
       </c>
-      <c r="Z14" s="27"/>
-      <c r="AA14" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB14" s="27"/>
-      <c r="AC14" s="27">
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1695,13 +1699,13 @@
         <f t="shared" si="8"/>
         <v>2286000</v>
       </c>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27">
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1762,10 +1766,10 @@
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="18" t="s">
+      <c r="R16" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="18"/>
+      <c r="S16" s="21"/>
       <c r="T16" s="5">
         <v>1740000</v>
       </c>
@@ -1785,13 +1789,13 @@
         <f t="shared" si="8"/>
         <v>906000</v>
       </c>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27">
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1871,13 +1875,13 @@
         <f t="shared" si="8"/>
         <v>420000</v>
       </c>
-      <c r="Z17" s="27"/>
-      <c r="AA17" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="27"/>
-      <c r="AC17" s="27">
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -1962,13 +1966,13 @@
         <f t="shared" si="8"/>
         <v>1650000</v>
       </c>
-      <c r="Z18" s="27"/>
-      <c r="AA18" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="27"/>
-      <c r="AC18" s="27">
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2055,13 +2059,13 @@
         <f t="shared" si="8"/>
         <v>2100000</v>
       </c>
-      <c r="Z19" s="27"/>
-      <c r="AA19" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="27"/>
-      <c r="AC19" s="27">
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2140,13 +2144,13 @@
       <c r="Y20" s="7">
         <v>1782000</v>
       </c>
-      <c r="Z20" s="28"/>
-      <c r="AA20" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="28"/>
-      <c r="AC20" s="27">
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2161,12 +2165,12 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5">
-        <f t="shared" ref="E20:E38" si="11">D21*$E$45</f>
+        <f t="shared" ref="E21:E38" si="11">D21*$E$45</f>
         <v>0</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5">
-        <f t="shared" ref="G20:G38" si="12">F21*$E$45</f>
+        <f t="shared" ref="G21:G38" si="12">F21*$E$45</f>
         <v>0</v>
       </c>
       <c r="H21" s="4"/>
@@ -2174,10 +2178,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="6">
+        <v>1740000</v>
+      </c>
       <c r="K21" s="5">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1044000</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -2186,8 +2192,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P21" s="28"/>
-      <c r="Q21" s="27">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2205,13 +2211,13 @@
       </c>
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
-      <c r="Z21" s="28"/>
-      <c r="AA21" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB21" s="28"/>
-      <c r="AC21" s="27">
+      <c r="Z21" s="15"/>
+      <c r="AA21" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2239,7 +2245,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2251,8 +2257,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="27">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2270,13 +2276,13 @@
       </c>
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
-      <c r="Z22" s="28"/>
-      <c r="AA22" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB22" s="28"/>
-      <c r="AC22" s="27">
+      <c r="Z22" s="15"/>
+      <c r="AA22" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2304,7 +2310,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2316,8 +2322,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P23" s="28"/>
-      <c r="Q23" s="27">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2335,13 +2341,13 @@
       </c>
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
-      <c r="Z23" s="28"/>
-      <c r="AA23" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB23" s="28"/>
-      <c r="AC23" s="27">
+      <c r="Z23" s="15"/>
+      <c r="AA23" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2369,7 +2375,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2381,8 +2387,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P24" s="28"/>
-      <c r="Q24" s="27">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2400,13 +2406,13 @@
       </c>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
-      <c r="Z24" s="28"/>
-      <c r="AA24" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="27">
+      <c r="Z24" s="15"/>
+      <c r="AA24" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="15"/>
+      <c r="AC24" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2434,7 +2440,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="4"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2446,8 +2452,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="27">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2465,13 +2471,13 @@
       </c>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
-      <c r="Z25" s="28"/>
-      <c r="AA25" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB25" s="28"/>
-      <c r="AC25" s="27">
+      <c r="Z25" s="15"/>
+      <c r="AA25" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="15"/>
+      <c r="AC25" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2499,7 +2505,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="4"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2511,8 +2517,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P26" s="28"/>
-      <c r="Q26" s="27">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2530,13 +2536,13 @@
       </c>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
-      <c r="Z26" s="28"/>
-      <c r="AA26" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB26" s="28"/>
-      <c r="AC26" s="27">
+      <c r="Z26" s="15"/>
+      <c r="AA26" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="15"/>
+      <c r="AC26" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2564,7 +2570,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="4"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2576,8 +2582,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P27" s="28"/>
-      <c r="Q27" s="27">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2595,13 +2601,13 @@
       </c>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="27">
+      <c r="Z27" s="15"/>
+      <c r="AA27" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB27" s="15"/>
+      <c r="AC27" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2629,7 +2635,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="4"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2641,8 +2647,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="27">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2660,13 +2666,13 @@
       </c>
       <c r="X28" s="4"/>
       <c r="Y28" s="4"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="27">
+      <c r="Z28" s="15"/>
+      <c r="AA28" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB28" s="15"/>
+      <c r="AC28" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2694,7 +2700,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="4"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2706,8 +2712,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="27">
+      <c r="P29" s="15"/>
+      <c r="Q29" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2725,13 +2731,13 @@
       </c>
       <c r="X29" s="4"/>
       <c r="Y29" s="4"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="27">
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB29" s="15"/>
+      <c r="AC29" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2759,7 +2765,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="4"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2771,8 +2777,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P30" s="28"/>
-      <c r="Q30" s="27">
+      <c r="P30" s="15"/>
+      <c r="Q30" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2790,13 +2796,13 @@
       </c>
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
-      <c r="Z30" s="28"/>
-      <c r="AA30" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB30" s="28"/>
-      <c r="AC30" s="27">
+      <c r="Z30" s="15"/>
+      <c r="AA30" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB30" s="15"/>
+      <c r="AC30" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2824,7 +2830,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="4"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2836,8 +2842,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P31" s="28"/>
-      <c r="Q31" s="27">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2855,13 +2861,13 @@
       </c>
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
-      <c r="Z31" s="28"/>
-      <c r="AA31" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB31" s="28"/>
-      <c r="AC31" s="27">
+      <c r="Z31" s="15"/>
+      <c r="AA31" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB31" s="15"/>
+      <c r="AC31" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2889,7 +2895,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="4"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2901,8 +2907,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="27">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2920,13 +2926,13 @@
       </c>
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
-      <c r="Z32" s="28"/>
-      <c r="AA32" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB32" s="28"/>
-      <c r="AC32" s="27">
+      <c r="Z32" s="15"/>
+      <c r="AA32" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB32" s="15"/>
+      <c r="AC32" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -2954,7 +2960,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="4"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -2966,8 +2972,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P33" s="28"/>
-      <c r="Q33" s="27">
+      <c r="P33" s="15"/>
+      <c r="Q33" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2985,13 +2991,13 @@
       </c>
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
-      <c r="Z33" s="28"/>
-      <c r="AA33" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB33" s="28"/>
-      <c r="AC33" s="27">
+      <c r="Z33" s="15"/>
+      <c r="AA33" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB33" s="15"/>
+      <c r="AC33" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3019,7 +3025,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="4"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3031,8 +3037,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P34" s="28"/>
-      <c r="Q34" s="27">
+      <c r="P34" s="15"/>
+      <c r="Q34" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3050,13 +3056,13 @@
       </c>
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
-      <c r="Z34" s="28"/>
-      <c r="AA34" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB34" s="28"/>
-      <c r="AC34" s="27">
+      <c r="Z34" s="15"/>
+      <c r="AA34" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB34" s="15"/>
+      <c r="AC34" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3084,7 +3090,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="4"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3096,8 +3102,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P35" s="28"/>
-      <c r="Q35" s="27">
+      <c r="P35" s="15"/>
+      <c r="Q35" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3115,13 +3121,13 @@
       </c>
       <c r="X35" s="4"/>
       <c r="Y35" s="4"/>
-      <c r="Z35" s="28"/>
-      <c r="AA35" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB35" s="28"/>
-      <c r="AC35" s="27">
+      <c r="Z35" s="15"/>
+      <c r="AA35" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB35" s="15"/>
+      <c r="AC35" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3149,7 +3155,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="4"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3161,8 +3167,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P36" s="28"/>
-      <c r="Q36" s="27">
+      <c r="P36" s="15"/>
+      <c r="Q36" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3180,13 +3186,13 @@
       </c>
       <c r="X36" s="4"/>
       <c r="Y36" s="4"/>
-      <c r="Z36" s="28"/>
-      <c r="AA36" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB36" s="28"/>
-      <c r="AC36" s="27">
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3214,7 +3220,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="4"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3226,8 +3232,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P37" s="28"/>
-      <c r="Q37" s="27">
+      <c r="P37" s="15"/>
+      <c r="Q37" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3245,13 +3251,13 @@
       </c>
       <c r="X37" s="4"/>
       <c r="Y37" s="4"/>
-      <c r="Z37" s="28"/>
-      <c r="AA37" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB37" s="28"/>
-      <c r="AC37" s="27">
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3279,7 +3285,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="4"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -3291,8 +3297,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P38" s="28"/>
-      <c r="Q38" s="27">
+      <c r="P38" s="15"/>
+      <c r="Q38" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -3310,13 +3316,13 @@
       </c>
       <c r="X38" s="4"/>
       <c r="Y38" s="4"/>
-      <c r="Z38" s="28"/>
-      <c r="AA38" s="27">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AB38" s="28"/>
-      <c r="AC38" s="27">
+      <c r="Z38" s="15"/>
+      <c r="AA38" s="14">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB38" s="15"/>
+      <c r="AC38" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -3357,11 +3363,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B5:AL45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="Q16" sqref="Q16"/>
+      <selection pane="bottomRight" activeCell="B8" sqref="B8:C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3397,34 +3403,34 @@
   <sheetData>
     <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="17"/>
-      <c r="H6" s="16" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="16" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="16" t="s">
+      <c r="K6" s="20"/>
+      <c r="L6" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="16" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="17"/>
+      <c r="O6" s="20"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -3905,10 +3911,10 @@
       <c r="E18" s="5">
         <v>1170000</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="6">
         <v>1860000</v>
       </c>
@@ -3948,8 +3954,8 @@
       <c r="E19" s="6">
         <v>1230000</v>
       </c>
-      <c r="F19" s="21"/>
-      <c r="G19" s="22"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="6">
         <v>1850000</v>
       </c>
@@ -3989,8 +3995,8 @@
       <c r="E20" s="6">
         <v>1170000</v>
       </c>
-      <c r="F20" s="21"/>
-      <c r="G20" s="22"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="6">
         <v>1200000</v>
       </c>
@@ -4026,9 +4032,11 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="4"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="6">
+        <v>2300000</v>
+      </c>
       <c r="I21" s="5"/>
       <c r="J21" s="4"/>
       <c r="K21" s="5"/>
@@ -4047,9 +4055,11 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="4"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="12">
+        <v>100000</v>
+      </c>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
       <c r="K22" s="5"/>
@@ -4068,8 +4078,8 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="22"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
@@ -4089,8 +4099,8 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="22"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
@@ -4110,8 +4120,8 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="22"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
@@ -4131,8 +4141,8 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="22"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
@@ -4152,8 +4162,8 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="22"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
@@ -4173,8 +4183,8 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="22"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
@@ -4194,8 +4204,8 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="22"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
@@ -4215,8 +4225,8 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="25"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
@@ -4236,8 +4246,8 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="22"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="25"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
@@ -4257,8 +4267,8 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
@@ -4278,8 +4288,8 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="22"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
@@ -4299,8 +4309,8 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="22"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
@@ -4320,8 +4330,8 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="22"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
@@ -4341,8 +4351,8 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="22"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="25"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
@@ -4362,8 +4372,8 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="22"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="25"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
@@ -4383,8 +4393,8 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="27"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="4"/>
@@ -4403,17 +4413,17 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
+    <mergeCell ref="F18:G38"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="J6:K6"/>
-    <mergeCell ref="F18:G38"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,26 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DF5C86-71D1-47A4-9D76-FFFAE18C3F46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2DD66F-E722-4D2F-8E49-F88A7604A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" firstSheet="1" activeTab="7" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="DƯƠNG ĐÔNG" sheetId="13" r:id="rId1"/>
     <sheet name="SUN" sheetId="1" r:id="rId2"/>
     <sheet name="VIN" sheetId="2" r:id="rId3"/>
-    <sheet name="Tùng" sheetId="3" r:id="rId4"/>
-    <sheet name="CHUNG" sheetId="5" r:id="rId5"/>
-    <sheet name="LẬP" sheetId="4" r:id="rId6"/>
-    <sheet name="Quốc Nam" sheetId="6" r:id="rId7"/>
-    <sheet name="NHẤT" sheetId="7" r:id="rId8"/>
-    <sheet name="THANH" sheetId="8" r:id="rId9"/>
-    <sheet name="THỪA" sheetId="9" r:id="rId10"/>
-    <sheet name="HÙNG" sheetId="10" r:id="rId11"/>
-    <sheet name="Thái" sheetId="11" r:id="rId12"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="43">
   <si>
     <t>DOANH THU</t>
   </si>
@@ -162,28 +153,7 @@
     <t>PHAN HOÀNG EM</t>
   </si>
   <si>
-    <t>CTY THỰC LÃNH</t>
-  </si>
-  <si>
     <t>CÔNG TY TNHH MTV VẬN TẢI VÀ DU LỊCH MINH HẢI</t>
-  </si>
-  <si>
-    <t>BẢNG DOANH THU 15 NGÀY</t>
-  </si>
-  <si>
-    <t>TỔNG DOANH THU</t>
-  </si>
-  <si>
-    <t>nghỉ chịu tang</t>
-  </si>
-  <si>
-    <t>KPI 1 NGÀY</t>
-  </si>
-  <si>
-    <t>LÊ THÀNH LẬP</t>
-  </si>
-  <si>
-    <t>6:4</t>
   </si>
   <si>
     <t>nghỉ tang</t>
@@ -197,12 +167,15 @@
   <si>
     <t>HOÀNG ANH TUẤN</t>
   </si>
+  <si>
+    <t>NGUYỄN ĐĂNG KHÁNH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
       <color theme="1"/>
@@ -250,20 +223,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -283,19 +242,13 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="13"/>
-      <color rgb="FFFFFF00"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -352,11 +305,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
@@ -368,7 +316,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -479,29 +427,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -547,16 +479,48 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="10" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -583,63 +547,19 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" xfId="3"/>
-    <xf numFmtId="3" fontId="8" fillId="10" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="13" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="20% - Accent3" xfId="1" builtinId="38"/>
     <cellStyle name="40% - Accent3" xfId="2" builtinId="39"/>
-    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -678,24 +598,28 @@
       <sheetName val="13-01"/>
       <sheetName val="14-01"/>
       <sheetName val="15-01"/>
+      <sheetName val="16-01"/>
+      <sheetName val="17-01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
+      <sheetData sheetId="16"/>
+      <sheetData sheetId="17"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1000,11 +924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE3ABA-3D79-4E3C-8E5B-050215091250}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="D21" sqref="D21:D22"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1039,44 +963,48 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:22" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="D2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:22" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="5" spans="2:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="18"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="29"/>
       <c r="V6" t="s">
         <v>33</v>
       </c>
@@ -1098,6 +1026,12 @@
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1112,6 +1046,8 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
@@ -1121,10 +1057,12 @@
       <c r="C9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
@@ -1138,6 +1076,8 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
@@ -1151,6 +1091,8 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
@@ -1164,6 +1106,8 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
@@ -1177,6 +1121,8 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -1190,6 +1136,8 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
@@ -1203,6 +1151,8 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="2:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
@@ -1216,8 +1166,10 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1229,8 +1181,10 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1242,8 +1196,10 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1255,8 +1211,10 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1264,12 +1222,14 @@
       <c r="C20" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="26"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="26"/>
       <c r="G20" s="8"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1277,20 +1237,22 @@
       <c r="C21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="43">
+      <c r="D21" s="22">
         <v>1828000</v>
       </c>
-      <c r="E21" s="44">
+      <c r="E21" s="23">
         <v>497000</v>
       </c>
-      <c r="F21" s="43">
+      <c r="F21" s="22">
         <v>1540000</v>
       </c>
-      <c r="G21" s="48">
+      <c r="G21" s="27">
         <v>924000</v>
       </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1298,20 +1260,22 @@
       <c r="C22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="43">
+      <c r="D22" s="22">
         <v>1130000</v>
       </c>
-      <c r="E22" s="44">
+      <c r="E22" s="23">
         <v>678000</v>
       </c>
-      <c r="F22" s="43">
+      <c r="F22" s="22">
         <v>1725000</v>
       </c>
-      <c r="G22" s="48">
+      <c r="G22" s="27">
         <v>1035000</v>
       </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1319,18 +1283,26 @@
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="7">
-        <f t="shared" ref="E11:E38" si="1">D23*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="7">
-        <f t="shared" ref="G11:G38" si="2">F23*$E$45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="22">
+        <v>1830000</v>
+      </c>
+      <c r="E23" s="23">
+        <v>1089000</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1960000</v>
+      </c>
+      <c r="G23" s="27">
+        <v>1176000</v>
+      </c>
+      <c r="H23" s="6">
+        <v>1520000</v>
+      </c>
+      <c r="I23" s="6">
+        <v>912000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1338,18 +1310,23 @@
       <c r="C24" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D24" s="42"/>
+      <c r="D24" s="21"/>
       <c r="E24" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="42"/>
+        <f t="shared" ref="E23:E38" si="1">D24*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="21"/>
       <c r="G24" s="7">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G23:G38" si="2">F24*$E$45</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="21"/>
+      <c r="I24" s="7">
+        <f t="shared" ref="I24:I38" si="3">H24*$E$45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1357,18 +1334,23 @@
       <c r="C25" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="42"/>
+      <c r="D25" s="21"/>
       <c r="E25" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F25" s="42"/>
+      <c r="F25" s="21"/>
       <c r="G25" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="21"/>
+      <c r="I25" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1376,18 +1358,23 @@
       <c r="C26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F26" s="42"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="21"/>
+      <c r="I26" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1395,18 +1382,23 @@
       <c r="C27" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="42"/>
+      <c r="D27" s="21"/>
       <c r="E27" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F27" s="42"/>
+      <c r="F27" s="21"/>
       <c r="G27" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="21"/>
+      <c r="I27" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1414,18 +1406,23 @@
       <c r="C28" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="42"/>
+      <c r="D28" s="21"/>
       <c r="E28" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F28" s="42"/>
+      <c r="F28" s="21"/>
       <c r="G28" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="21"/>
+      <c r="I28" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1433,18 +1430,23 @@
       <c r="C29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="42"/>
+      <c r="D29" s="21"/>
       <c r="E29" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F29" s="42"/>
+      <c r="F29" s="21"/>
       <c r="G29" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="21"/>
+      <c r="I29" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1452,18 +1454,23 @@
       <c r="C30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="21"/>
       <c r="E30" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F30" s="42"/>
+      <c r="F30" s="21"/>
       <c r="G30" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="21"/>
+      <c r="I30" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1471,18 +1478,23 @@
       <c r="C31" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="42"/>
+      <c r="D31" s="21"/>
       <c r="E31" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F31" s="42"/>
+      <c r="F31" s="21"/>
       <c r="G31" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="21"/>
+      <c r="I31" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1490,18 +1502,23 @@
       <c r="C32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="42"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="42"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="21"/>
+      <c r="I32" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1509,18 +1526,23 @@
       <c r="C33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="42"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F33" s="42"/>
+      <c r="F33" s="21"/>
       <c r="G33" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="21"/>
+      <c r="I33" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1528,18 +1550,23 @@
       <c r="C34" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F34" s="42"/>
+      <c r="F34" s="21"/>
       <c r="G34" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="21"/>
+      <c r="I34" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1547,18 +1574,23 @@
       <c r="C35" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D35" s="42"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F35" s="42"/>
+      <c r="F35" s="21"/>
       <c r="G35" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="21"/>
+      <c r="I35" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1566,18 +1598,23 @@
       <c r="C36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="42"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F36" s="42"/>
+      <c r="F36" s="21"/>
       <c r="G36" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="21"/>
+      <c r="I36" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1585,18 +1622,23 @@
       <c r="C37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="42"/>
+      <c r="D37" s="21"/>
       <c r="E37" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F37" s="42"/>
+      <c r="F37" s="21"/>
       <c r="G37" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="21"/>
+      <c r="I37" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1604,18 +1646,23 @@
       <c r="C38" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="42"/>
+      <c r="D38" s="21"/>
       <c r="E38" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F38" s="42"/>
+      <c r="F38" s="21"/>
       <c r="G38" s="7">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="21"/>
+      <c r="I38" s="7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
         <v>23</v>
       </c>
@@ -1624,1014 +1671,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="4">
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB576187-85AF-4AF1-B58B-A39B9B867F28}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1830000</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14*$E$29</f>
-        <v>1098000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1830000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1116000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1740000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1044000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1780000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1068000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1700000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1000000</v>
-      </c>
-      <c r="E19" s="5">
-        <v>600000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1935000</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1161000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1910000</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1146000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1700000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>15425000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C043CD-4974-4DBC-AC56-B9CA26968D46}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3235000</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*$E$29</f>
-        <v>1941000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2080000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1880000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1130000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1920000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>D11*$E$29</f>
-        <v>1152000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2410000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3616000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>2160000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2230000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1338000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2380000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1428000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1750000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1050000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>2110000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2090000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1260000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2050000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>D19*$E$29</f>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1900000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1990000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1200000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>920000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>552000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>32561000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78412BE2-C317-47D5-B9ED-1F704CB5F09B}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="G9" sqref="G9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.88671875" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2250000</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" ref="E12:E19" si="1">D12*$E$29</f>
-        <v>1350000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>2300000</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1380000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1800000</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>3810000</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>2286000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1510000</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>906000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>700000</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>2750000</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>1650000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>3500000</v>
-      </c>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>2100000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2970000</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7">
-        <v>1752000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1051200</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7">
-        <v>1700000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>25042000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2643,10 +1688,10 @@
   <dimension ref="B2:AT45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="7" topLeftCell="R8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="P8" sqref="P8:P20"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2681,92 +1726,92 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:46" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="D2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:46" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
     </row>
     <row r="5" spans="2:46" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:46" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="18"/>
-      <c r="P6" s="17" t="s">
+      <c r="O6" s="29"/>
+      <c r="P6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="17" t="s">
+      <c r="Q6" s="29"/>
+      <c r="R6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="18"/>
-      <c r="T6" s="17" t="s">
+      <c r="S6" s="29"/>
+      <c r="T6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="18"/>
-      <c r="V6" s="17" t="s">
+      <c r="U6" s="29"/>
+      <c r="V6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="18"/>
-      <c r="X6" s="17" t="s">
+      <c r="W6" s="29"/>
+      <c r="X6" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="17" t="s">
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="18"/>
-      <c r="AB6" s="17" t="s">
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="18"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="AE6" s="18"/>
+      <c r="AE6" s="29"/>
       <c r="AT6" t="s">
         <v>33</v>
       </c>
@@ -3635,10 +2680,10 @@
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="19" t="s">
+      <c r="R16" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="19"/>
+      <c r="S16" s="32"/>
       <c r="T16" s="5">
         <v>1740000</v>
       </c>
@@ -4155,15 +3200,15 @@
       <c r="I22" s="7">
         <v>894000</v>
       </c>
-      <c r="J22" s="41"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="M22" s="37"/>
+      <c r="L22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="43"/>
       <c r="N22" s="6">
         <v>1280000</v>
       </c>
@@ -4224,59 +3269,81 @@
       <c r="C23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5">
-        <f t="shared" ref="E22:E38" si="11">D23*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="5">
-        <f t="shared" ref="G22:G38" si="12">F23*$E$45</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="41"/>
+      <c r="D23" s="6">
+        <v>1630000</v>
+      </c>
+      <c r="E23" s="6">
+        <v>978000</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1770000</v>
+      </c>
+      <c r="G23" s="27">
+        <v>1062000</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1610000</v>
+      </c>
+      <c r="I23" s="7">
+        <v>966000</v>
+      </c>
+      <c r="J23" s="20"/>
       <c r="K23" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="L23" s="6">
+        <v>1790000</v>
+      </c>
+      <c r="M23" s="7">
+        <v>1074000</v>
+      </c>
+      <c r="N23" s="6">
+        <v>1010000</v>
+      </c>
+      <c r="O23" s="6">
+        <v>606000</v>
       </c>
       <c r="P23" s="15"/>
       <c r="Q23" s="14">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R23" s="4"/>
-      <c r="S23" s="5">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="4"/>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="5">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="R23" s="6">
+        <v>1750000</v>
+      </c>
+      <c r="S23" s="7">
+        <v>1050000</v>
+      </c>
+      <c r="T23" s="6">
+        <v>1800000</v>
+      </c>
+      <c r="U23" s="7">
+        <v>1080000</v>
+      </c>
+      <c r="V23" s="6">
+        <v>1870000</v>
+      </c>
+      <c r="W23" s="6">
+        <v>1120000</v>
+      </c>
+      <c r="X23" s="7">
+        <v>3430000</v>
+      </c>
+      <c r="Y23" s="6">
+        <v>2058000</v>
+      </c>
       <c r="Z23" s="15"/>
       <c r="AA23" s="14">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
+      <c r="AB23" s="7">
+        <v>1745000</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>1047000</v>
+      </c>
       <c r="AD23" s="15"/>
       <c r="AE23" s="14">
         <f t="shared" si="7"/>
@@ -4293,12 +3360,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E23:E38" si="11">D24*$E$45</f>
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="G23:G38" si="12">F24*$E$45</f>
         <v>0</v>
       </c>
       <c r="H24" s="4"/>
@@ -4306,7 +3373,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J24" s="41"/>
+      <c r="J24" s="20"/>
       <c r="K24" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4373,7 +3440,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J25" s="41"/>
+      <c r="J25" s="20"/>
       <c r="K25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4440,7 +3507,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J26" s="41"/>
+      <c r="J26" s="20"/>
       <c r="K26" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4507,7 +3574,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J27" s="41"/>
+      <c r="J27" s="20"/>
       <c r="K27" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4574,7 +3641,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J28" s="41"/>
+      <c r="J28" s="20"/>
       <c r="K28" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4641,7 +3708,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="41"/>
+      <c r="J29" s="20"/>
       <c r="K29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4708,7 +3775,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J30" s="41"/>
+      <c r="J30" s="20"/>
       <c r="K30" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4775,7 +3842,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J31" s="41"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4842,7 +3909,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J32" s="41"/>
+      <c r="J32" s="20"/>
       <c r="K32" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4909,7 +3976,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J33" s="41"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4976,7 +4043,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J34" s="41"/>
+      <c r="J34" s="20"/>
       <c r="K34" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5043,7 +4110,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J35" s="41"/>
+      <c r="J35" s="20"/>
       <c r="K35" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5110,7 +4177,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J36" s="41"/>
+      <c r="J36" s="20"/>
       <c r="K36" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5177,7 +4244,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J37" s="41"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5244,7 +4311,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J38" s="41"/>
+      <c r="J38" s="20"/>
       <c r="K38" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -5297,13 +4364,8 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="R16:S16"/>
@@ -5315,6 +4377,12 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="AB6:AC6"/>
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5325,7 +4393,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AL45"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
@@ -5364,54 +4432,54 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:38" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="F2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
+      <c r="F2" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
     </row>
     <row r="3" spans="2:38" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="31"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="17"/>
     </row>
     <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="17" t="s">
+      <c r="C6" s="40"/>
+      <c r="D6" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="17" t="s">
+      <c r="E6" s="29"/>
+      <c r="F6" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="17" t="s">
+      <c r="G6" s="29"/>
+      <c r="H6" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="17" t="s">
+      <c r="I6" s="29"/>
+      <c r="J6" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="18"/>
-      <c r="L6" s="17" t="s">
+      <c r="K6" s="29"/>
+      <c r="L6" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="17" t="s">
+      <c r="M6" s="29"/>
+      <c r="N6" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="18"/>
+      <c r="O6" s="29"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -5892,10 +4960,10 @@
       <c r="E18" s="5">
         <v>1170000</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="22"/>
+      <c r="G18" s="34"/>
       <c r="H18" s="6">
         <v>1860000</v>
       </c>
@@ -5935,8 +5003,8 @@
       <c r="E19" s="6">
         <v>1230000</v>
       </c>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
       <c r="H19" s="6">
         <v>1850000</v>
       </c>
@@ -5976,8 +5044,8 @@
       <c r="E20" s="6">
         <v>1170000</v>
       </c>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
       <c r="H20" s="6">
         <v>1200000</v>
       </c>
@@ -6017,8 +5085,8 @@
       <c r="E21" s="6">
         <v>780000</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="6">
         <v>2400000</v>
       </c>
@@ -6054,8 +5122,8 @@
       <c r="E22" s="6">
         <v>1140000</v>
       </c>
-      <c r="F22" s="23"/>
-      <c r="G22" s="24"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="12"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
@@ -6083,8 +5151,8 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="24"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
@@ -6104,8 +5172,8 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="24"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
@@ -6125,8 +5193,8 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="24"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
@@ -6146,8 +5214,8 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
@@ -6167,8 +5235,8 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
@@ -6188,8 +5256,8 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="24"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
@@ -6209,8 +5277,8 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
@@ -6230,8 +5298,8 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
@@ -6251,8 +5319,8 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="24"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
@@ -6272,8 +5340,8 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
@@ -6293,8 +5361,8 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="24"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
@@ -6314,8 +5382,8 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="24"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
@@ -6335,8 +5403,8 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
@@ -6356,8 +5424,8 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
@@ -6377,8 +5445,8 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
@@ -6398,8 +5466,8 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="26"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="4"/>
@@ -6418,6 +5486,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="8">
     <mergeCell ref="F18:G38"/>
     <mergeCell ref="N6:O6"/>
@@ -6431,2025 +5500,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E53B0EC9-38FE-446F-B83F-AC232145A578}">
-  <dimension ref="B1:L29"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1940000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <f>B5+1</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1720000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B19" si="0">B6+1</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2420000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1390000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>2600000</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*E29</f>
-        <v>1560000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2420000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2600000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2000000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>[1]!Table145245678910[[#This Row],[THỰC LÃNH]]</f>
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1710000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1930000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2060000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1800000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>3000000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6">
-        <v>2230000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1340000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6">
-        <v>1850000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1110000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2060000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1236000</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="34">
-        <f>SUM(D5:D19)</f>
-        <v>32340000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23971A71-3B18-4A6F-9250-1FECC52E5BBE}">
-  <dimension ref="B1:L43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="19.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.44140625" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1450000</v>
-      </c>
-      <c r="E5" s="5">
-        <f>D5*$E$43</f>
-        <v>870000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <f>B5+1</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5">
-        <v>2080000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B19" si="0">B6+1</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>2080000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1250000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1790000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1075000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>1760000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1060000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2270000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1362000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1720000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>D11*$E$43</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5">
-        <v>700000</v>
-      </c>
-      <c r="E12" s="5">
-        <f>D12*$E$43</f>
-        <v>420000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1400000</v>
-      </c>
-      <c r="E13" s="5">
-        <f>D13*$E$43</f>
-        <v>840000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1810000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1086000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2400000</v>
-      </c>
-      <c r="E15" s="5">
-        <f>D15*$E$43</f>
-        <v>1440000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1940000</v>
-      </c>
-      <c r="E16" s="5">
-        <f>D16*$E$43</f>
-        <v>1164000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1460000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>876000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="6">
-        <v>2490000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1494000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1630000</v>
-      </c>
-      <c r="E19" s="6">
-        <v>978000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="34">
-        <f>SUM(D5:D19)</f>
-        <v>26980000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D22" s="35"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E43">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F923260D-D06F-4FB5-BD98-4242E29BA978}">
-  <dimension ref="B1:L27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-    <col min="6" max="6" width="20.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="15" max="15" width="13.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-    </row>
-    <row r="2" spans="2:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="18"/>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="5">
-        <v>1700000</v>
-      </c>
-      <c r="E5" s="5">
-        <v>660000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <f>B5+1</f>
-        <v>2</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1760000</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <f t="shared" ref="B7:B19" si="0">B6+1</f>
-        <v>3</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1850000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1390000</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1270000</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*E27</f>
-        <v>762000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2090000</v>
-      </c>
-      <c r="E9" s="5">
-        <v>1450000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1770000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1800000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>[1]!Table145245678910[[#This Row],[THỰC LÃNH]]</f>
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1920000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1020000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="5">
-        <v>3310000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1150000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2980000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2910000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1080000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2770000</v>
-      </c>
-      <c r="E16" s="5">
-        <v>1800000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="7">
-        <v>2075000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1340000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="7">
-        <v>1410000</v>
-      </c>
-      <c r="E18" s="6">
-        <v>1110000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7">
-        <v>1490000</v>
-      </c>
-      <c r="E19" s="7">
-        <v>894000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G20" s="34">
-        <f>SUM(D5:D19)</f>
-        <v>31105000</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{342537E0-55F8-4122-BD1F-489AFD95993F}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.77734375" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1720000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>1030000</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2050000</v>
-      </c>
-      <c r="E9" s="5">
-        <f>D9*$E$29</f>
-        <v>1230000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>1880000</v>
-      </c>
-      <c r="E10" s="5">
-        <f>D10*$E$29</f>
-        <v>1128000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1900000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>D11*$E$29</f>
-        <v>1140000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>1960000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1180000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1830000</v>
-      </c>
-      <c r="E13" s="5">
-        <f>D13*$E$29</f>
-        <v>1098000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>2550000</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14*$E$29</f>
-        <v>1530000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1720000</v>
-      </c>
-      <c r="E15" s="5">
-        <f>D15*$E$29</f>
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
-        <v>2360000</v>
-      </c>
-      <c r="E16" s="5">
-        <f>D16*$E$29</f>
-        <v>1416000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1960000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1176000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1950000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1170000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2520000</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1512000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1910000</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1146000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1710000</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1026000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="37"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>28020000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDD00B8C-7C56-4C02-8A93-4D4B7963D4A3}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.21875" customWidth="1"/>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1750000</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*$E$29</f>
-        <v>1050000</v>
-      </c>
-      <c r="G8" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2200000</v>
-      </c>
-      <c r="E9" s="5">
-        <f>D9*$E$29</f>
-        <v>1320000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2245000</v>
-      </c>
-      <c r="E10" s="5">
-        <v>1392000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>2230000</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" ref="E11:E16" si="1">D11*$E$29</f>
-        <v>1338000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2120000</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>1272000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1770000</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>1062000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1930000</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>1158000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>2080000</v>
-      </c>
-      <c r="E15" s="5">
-        <f t="shared" si="1"/>
-        <v>1248000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="5">
-        <v>1390000</v>
-      </c>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>834000</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>3249000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1950000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1710000</v>
-      </c>
-      <c r="E18" s="5">
-        <f>D18*$E$29</f>
-        <v>1026000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>2360000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>D19*$E$29</f>
-        <v>1416000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1250000</v>
-      </c>
-      <c r="E20" s="6">
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1460000</v>
-      </c>
-      <c r="E21" s="6">
-        <v>876000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1280000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>768000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>29024000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FF73D4C-E629-4BA1-9543-87921B3C1F6A}">
-  <dimension ref="B2:X29"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" customWidth="1"/>
-    <col min="13" max="13" width="12.77734375" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" customWidth="1"/>
-    <col min="20" max="21" width="12.44140625" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12" customWidth="1"/>
-    <col min="24" max="24" width="14.77734375" customWidth="1"/>
-    <col min="25" max="25" width="12.33203125" customWidth="1"/>
-    <col min="26" max="26" width="12" customWidth="1"/>
-    <col min="27" max="27" width="12.21875" customWidth="1"/>
-    <col min="28" max="28" width="12.77734375" customWidth="1"/>
-    <col min="29" max="29" width="13.77734375" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:24" ht="27.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-    </row>
-    <row r="3" spans="2:24" ht="30.75" x14ac:dyDescent="0.25">
-      <c r="E3" s="31"/>
-      <c r="F3" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="5" spans="2:24" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:24" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="X6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="5">
-        <v>1710000</v>
-      </c>
-      <c r="E8" s="5">
-        <f>D8*$E$29</f>
-        <v>1026000</v>
-      </c>
-    </row>
-    <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <f>B8+1</f>
-        <v>2</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="5">
-        <v>2130000</v>
-      </c>
-      <c r="E9" s="5">
-        <f>D9*$E$29</f>
-        <v>1278000</v>
-      </c>
-    </row>
-    <row r="10" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <f t="shared" ref="B10:B22" si="0">B9+1</f>
-        <v>3</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5">
-        <v>2130000</v>
-      </c>
-      <c r="E10" s="5">
-        <f>D10*$E$29</f>
-        <v>1278000</v>
-      </c>
-    </row>
-    <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5">
-        <v>1790000</v>
-      </c>
-      <c r="E11" s="5">
-        <f>D11*$E$29</f>
-        <v>1074000</v>
-      </c>
-    </row>
-    <row r="12" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5">
-        <v>2002000</v>
-      </c>
-      <c r="E12" s="5">
-        <v>1202000</v>
-      </c>
-    </row>
-    <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5">
-        <v>1720000</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="5">
-        <v>1730000</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1038000</v>
-      </c>
-    </row>
-    <row r="15" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="5">
-        <v>1830000</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1098000</v>
-      </c>
-    </row>
-    <row r="16" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="2">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="5">
-        <v>1950000</v>
-      </c>
-      <c r="E17" s="5">
-        <v>1170000</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1830000</v>
-      </c>
-      <c r="E18" s="5">
-        <f>D18*$E$29</f>
-        <v>1098000</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1990000</v>
-      </c>
-      <c r="E19" s="5">
-        <f>D19*$E$29</f>
-        <v>1194000</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1942000</v>
-      </c>
-      <c r="E20" s="7">
-        <v>1165000</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1720000</v>
-      </c>
-      <c r="E21" s="7">
-        <v>1032000</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1650000</v>
-      </c>
-      <c r="E22" s="6">
-        <v>990000</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F23" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G23" s="34">
-        <f>SUM(D8:D22)</f>
-        <v>26124000</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29">
-        <v>0.6</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Chấm công/CHẤM CÔNG T1 2026.xlsx
+++ b/Chấm công/CHẤM CÔNG T1 2026.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Duc Anh\Chấm công\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2DD66F-E722-4D2F-8E49-F88A7604A673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B84DD1-BB30-4AC3-8F4D-3D8E171F85E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="487" activeTab="2" xr2:uid="{5BB9A907-C889-48BA-A08B-CDCC7DB0058E}"/>
   </bookViews>
   <sheets>
     <sheet name="DƯƠNG ĐÔNG" sheetId="13" r:id="rId1"/>
@@ -508,6 +508,9 @@
     <xf numFmtId="3" fontId="10" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,6 +525,12 @@
     </xf>
     <xf numFmtId="3" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="6" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -546,15 +555,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -600,26 +600,32 @@
       <sheetName val="15-01"/>
       <sheetName val="16-01"/>
       <sheetName val="17-01"/>
+      <sheetName val="18-01"/>
+      <sheetName val="19-01"/>
+      <sheetName val="20-01"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
       <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
+      <sheetData sheetId="19" refreshError="1"/>
+      <sheetData sheetId="20" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -924,11 +930,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8BE3ABA-3D79-4E3C-8E5B-050215091250}">
   <dimension ref="B2:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="7" topLeftCell="D24" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -989,22 +995,22 @@
     </row>
     <row r="5" spans="2:22" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:22" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="29"/>
+      <c r="I6" s="30"/>
       <c r="V6" t="s">
         <v>33</v>
       </c>
@@ -1312,12 +1318,12 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="7">
-        <f t="shared" ref="E23:E38" si="1">D24*$E$45</f>
+        <f t="shared" ref="E24:E38" si="1">D24*$E$45</f>
         <v>0</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="7">
-        <f t="shared" ref="G23:G38" si="2">F24*$E$45</f>
+        <f t="shared" ref="G24:G38" si="2">F24*$E$45</f>
         <v>0</v>
       </c>
       <c r="H24" s="21"/>
@@ -1752,66 +1758,66 @@
     </row>
     <row r="5" spans="2:46" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:46" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="32"/>
+      <c r="D6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="28" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="O6" s="29"/>
-      <c r="P6" s="28" t="s">
+      <c r="O6" s="30"/>
+      <c r="P6" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="29"/>
-      <c r="R6" s="28" t="s">
+      <c r="Q6" s="30"/>
+      <c r="R6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S6" s="29"/>
-      <c r="T6" s="28" t="s">
+      <c r="S6" s="30"/>
+      <c r="T6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="U6" s="29"/>
-      <c r="V6" s="28" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="W6" s="29"/>
-      <c r="X6" s="28" t="s">
+      <c r="W6" s="30"/>
+      <c r="X6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="Y6" s="29"/>
-      <c r="Z6" s="28" t="s">
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="AA6" s="29"/>
-      <c r="AB6" s="28" t="s">
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AC6" s="29"/>
-      <c r="AD6" s="28" t="s">
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="AE6" s="29"/>
+      <c r="AE6" s="30"/>
       <c r="AT6" t="s">
         <v>33</v>
       </c>
@@ -2680,10 +2686,10 @@
         <f t="shared" si="3"/>
         <v>840000</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S16" s="32"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="5">
         <v>1740000</v>
       </c>
@@ -3205,10 +3211,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L22" s="42" t="s">
+      <c r="L22" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="35"/>
       <c r="N22" s="6">
         <v>1280000</v>
       </c>
@@ -3275,7 +3281,7 @@
       <c r="E23" s="6">
         <v>978000</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="28">
         <v>1770000</v>
       </c>
       <c r="G23" s="27">
@@ -3360,12 +3366,12 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5">
-        <f t="shared" ref="E23:E38" si="11">D24*$E$45</f>
+        <f t="shared" ref="E24:E38" si="11">D24*$E$45</f>
         <v>0</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5">
-        <f t="shared" ref="G23:G38" si="12">F24*$E$45</f>
+        <f t="shared" ref="G24:G38" si="12">F24*$E$45</f>
         <v>0</v>
       </c>
       <c r="H24" s="4"/>
@@ -4366,6 +4372,12 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="17">
+    <mergeCell ref="L22:M22"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:K6"/>
     <mergeCell ref="Z6:AA6"/>
     <mergeCell ref="AD6:AE6"/>
     <mergeCell ref="R16:S16"/>
@@ -4377,12 +4389,6 @@
     <mergeCell ref="T6:U6"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="AB6:AC6"/>
-    <mergeCell ref="L22:M22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:K6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4393,11 +4399,11 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AL45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="3" ySplit="7" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="L14" sqref="L14"/>
+      <selection pane="bottomRight" activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4452,34 +4458,34 @@
     </row>
     <row r="5" spans="2:38" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:38" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="39" t="s">
+      <c r="B6" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="40"/>
-      <c r="D6" s="28" t="s">
+      <c r="C6" s="43"/>
+      <c r="D6" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="30"/>
+      <c r="F6" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28" t="s">
+      <c r="G6" s="30"/>
+      <c r="H6" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="29"/>
-      <c r="J6" s="28" t="s">
+      <c r="I6" s="30"/>
+      <c r="J6" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="K6" s="29"/>
-      <c r="L6" s="28" t="s">
+      <c r="K6" s="30"/>
+      <c r="L6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="29"/>
-      <c r="N6" s="28" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="O6" s="29"/>
+      <c r="O6" s="30"/>
     </row>
     <row r="7" spans="2:38" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -4960,10 +4966,10 @@
       <c r="E18" s="5">
         <v>1170000</v>
       </c>
-      <c r="F18" s="33" t="s">
+      <c r="F18" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="34"/>
+      <c r="G18" s="37"/>
       <c r="H18" s="6">
         <v>1860000</v>
       </c>
@@ -5003,8 +5009,8 @@
       <c r="E19" s="6">
         <v>1230000</v>
       </c>
-      <c r="F19" s="35"/>
-      <c r="G19" s="36"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="39"/>
       <c r="H19" s="6">
         <v>1850000</v>
       </c>
@@ -5044,8 +5050,8 @@
       <c r="E20" s="6">
         <v>1170000</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
       <c r="H20" s="6">
         <v>1200000</v>
       </c>
@@ -5085,8 +5091,8 @@
       <c r="E21" s="6">
         <v>780000</v>
       </c>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="39"/>
       <c r="H21" s="6">
         <v>2400000</v>
       </c>
@@ -5122,8 +5128,8 @@
       <c r="E22" s="6">
         <v>1140000</v>
       </c>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
       <c r="H22" s="12"/>
       <c r="I22" s="5"/>
       <c r="J22" s="4"/>
@@ -5151,8 +5157,8 @@
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="39"/>
       <c r="H23" s="4"/>
       <c r="I23" s="5"/>
       <c r="J23" s="4"/>
@@ -5172,8 +5178,8 @@
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="39"/>
       <c r="H24" s="4"/>
       <c r="I24" s="5"/>
       <c r="J24" s="4"/>
@@ -5193,8 +5199,8 @@
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="4"/>
       <c r="I25" s="5"/>
       <c r="J25" s="4"/>
@@ -5214,8 +5220,8 @@
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="4"/>
       <c r="I26" s="5"/>
       <c r="J26" s="4"/>
@@ -5235,8 +5241,8 @@
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
       <c r="H27" s="4"/>
       <c r="I27" s="5"/>
       <c r="J27" s="4"/>
@@ -5256,8 +5262,8 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="39"/>
       <c r="H28" s="4"/>
       <c r="I28" s="5"/>
       <c r="J28" s="4"/>
@@ -5277,8 +5283,8 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
       <c r="H29" s="4"/>
       <c r="I29" s="5"/>
       <c r="J29" s="4"/>
@@ -5298,8 +5304,8 @@
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="39"/>
       <c r="H30" s="4"/>
       <c r="I30" s="5"/>
       <c r="J30" s="4"/>
@@ -5319,8 +5325,8 @@
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="39"/>
       <c r="H31" s="4"/>
       <c r="I31" s="5"/>
       <c r="J31" s="4"/>
@@ -5340,8 +5346,8 @@
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
       <c r="H32" s="4"/>
       <c r="I32" s="5"/>
       <c r="J32" s="4"/>
@@ -5361,8 +5367,8 @@
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="39"/>
       <c r="H33" s="4"/>
       <c r="I33" s="5"/>
       <c r="J33" s="4"/>
@@ -5382,8 +5388,8 @@
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="39"/>
       <c r="H34" s="4"/>
       <c r="I34" s="5"/>
       <c r="J34" s="4"/>
@@ -5403,8 +5409,8 @@
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="39"/>
       <c r="H35" s="4"/>
       <c r="I35" s="5"/>
       <c r="J35" s="4"/>
@@ -5424,8 +5430,8 @@
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="39"/>
       <c r="H36" s="4"/>
       <c r="I36" s="5"/>
       <c r="J36" s="4"/>
@@ -5445,8 +5451,8 @@
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
       <c r="H37" s="4"/>
       <c r="I37" s="5"/>
       <c r="J37" s="4"/>
@@ -5466,8 +5472,8 @@
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="38"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="41"/>
       <c r="H38" s="4"/>
       <c r="I38" s="5"/>
       <c r="J38" s="4"/>
